--- a/Code/Results/Cases/Case_5_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_10/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.864654719623871</v>
+        <v>2.976349595142835</v>
       </c>
       <c r="C2">
-        <v>0.2965752518388314</v>
+        <v>0.7290996646474639</v>
       </c>
       <c r="D2">
-        <v>0.359425217255108</v>
+        <v>0.02389401154740867</v>
       </c>
       <c r="E2">
-        <v>0.08418371441615946</v>
+        <v>0.04517221511828318</v>
       </c>
       <c r="F2">
-        <v>6.553917891490016</v>
+        <v>1.840072375853509</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0759851928557076</v>
       </c>
       <c r="K2">
-        <v>0.4614698220846236</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1400899563296143</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5377136839941912</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.7428256489119391</v>
+      </c>
+      <c r="N2">
+        <v>0.8589682469518891</v>
+      </c>
+      <c r="O2">
+        <v>1.261467982837914</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.598124402792649</v>
+        <v>2.57968443333499</v>
       </c>
       <c r="C3">
-        <v>0.2534570502920701</v>
+        <v>0.629713135335777</v>
       </c>
       <c r="D3">
-        <v>0.321274780663714</v>
+        <v>0.02226014060381232</v>
       </c>
       <c r="E3">
-        <v>0.07497360589209734</v>
+        <v>0.0430743657321333</v>
       </c>
       <c r="F3">
-        <v>5.771889007317412</v>
+        <v>1.697836929723124</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.07302549303507178</v>
       </c>
       <c r="K3">
-        <v>0.3942386242385467</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1213496250238819</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4626452079791932</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.6479039365766184</v>
+      </c>
+      <c r="N3">
+        <v>0.9126601489451467</v>
+      </c>
+      <c r="O3">
+        <v>1.162464186839117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.438933383979901</v>
+        <v>2.33939796289593</v>
       </c>
       <c r="C4">
-        <v>0.22771640540671</v>
+        <v>0.5694281919585933</v>
       </c>
       <c r="D4">
-        <v>0.298347366504558</v>
+        <v>0.02126904997991019</v>
       </c>
       <c r="E4">
-        <v>0.06945558997291457</v>
+        <v>0.04184141812348585</v>
       </c>
       <c r="F4">
-        <v>5.302497905562461</v>
+        <v>1.614519926491681</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.07134413773544068</v>
       </c>
       <c r="K4">
-        <v>0.3540878067979918</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.110138274285756</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4177791639903745</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.5905022331251075</v>
+      </c>
+      <c r="N4">
+        <v>0.947230774992164</v>
+      </c>
+      <c r="O4">
+        <v>1.104599316177826</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.375025085412659</v>
+        <v>2.2421908672477</v>
       </c>
       <c r="C5">
-        <v>0.217380203425364</v>
+        <v>0.5450193868284714</v>
       </c>
       <c r="D5">
-        <v>0.2891078931175173</v>
+        <v>0.02086791349535488</v>
       </c>
       <c r="E5">
-        <v>0.06723676814736024</v>
+        <v>0.04135204274683169</v>
       </c>
       <c r="F5">
-        <v>5.113520610759906</v>
+        <v>1.581492353350271</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.07069092908278662</v>
       </c>
       <c r="K5">
-        <v>0.3379683421095265</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1056336224744605</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3997614585121738</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.5673050739684129</v>
+      </c>
+      <c r="N5">
+        <v>0.9617053834338343</v>
+      </c>
+      <c r="O5">
+        <v>1.081690973230323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.364467042919443</v>
+        <v>2.226089624988902</v>
       </c>
       <c r="C6">
-        <v>0.215672297487103</v>
+        <v>0.5409750784244522</v>
       </c>
       <c r="D6">
-        <v>0.2875793612703603</v>
+        <v>0.0208014623555961</v>
       </c>
       <c r="E6">
-        <v>0.06687000820644684</v>
+        <v>0.04127154878721129</v>
       </c>
       <c r="F6">
-        <v>5.082269089257125</v>
+        <v>1.576061639124532</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.07058433269880027</v>
       </c>
       <c r="K6">
-        <v>0.3353052198040061</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1048892199032707</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3967845065962194</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.5634642026654859</v>
+      </c>
+      <c r="N6">
+        <v>0.964131786657024</v>
+      </c>
+      <c r="O6">
+        <v>1.077925896052008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.438067790405086</v>
+        <v>2.338084252086503</v>
       </c>
       <c r="C7">
-        <v>0.2275764257507547</v>
+        <v>0.5690984027081356</v>
       </c>
       <c r="D7">
-        <v>0.2982223667829516</v>
+        <v>0.0212636293934878</v>
       </c>
       <c r="E7">
-        <v>0.06942555124749461</v>
+        <v>0.04183476637315131</v>
       </c>
       <c r="F7">
-        <v>5.299940472642078</v>
+        <v>1.61407086843974</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.07133520175258568</v>
       </c>
       <c r="K7">
-        <v>0.3538694847090582</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1100772762783038</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4175351488866923</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.5901886346866405</v>
+      </c>
+      <c r="N7">
+        <v>0.9474244392660971</v>
+      </c>
+      <c r="O7">
+        <v>1.104287725060644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.77172865609009</v>
+        <v>2.838832186423929</v>
       </c>
       <c r="C8">
-        <v>0.2815357290260181</v>
+        <v>0.6946602704620091</v>
       </c>
       <c r="D8">
-        <v>0.3461541855776744</v>
+        <v>0.02332794411229955</v>
       </c>
       <c r="E8">
-        <v>0.08097668061993346</v>
+        <v>0.04443692799609344</v>
       </c>
       <c r="F8">
-        <v>6.281778672887356</v>
+        <v>1.790142690979138</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.07493508970241791</v>
       </c>
       <c r="K8">
-        <v>0.4380275000989613</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1335605192789622</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5115482892238106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.7098969649240559</v>
+      </c>
+      <c r="N8">
+        <v>0.8771380942586688</v>
+      </c>
+      <c r="O8">
+        <v>1.226685021072456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.469620177852789</v>
+        <v>3.852211168949282</v>
       </c>
       <c r="C9">
-        <v>0.3948083766298964</v>
+        <v>0.9481480369708493</v>
       </c>
       <c r="D9">
-        <v>0.4451929535763099</v>
+        <v>0.02748805853739711</v>
       </c>
       <c r="E9">
-        <v>0.1049540272860519</v>
+        <v>0.05001721460262587</v>
       </c>
       <c r="F9">
-        <v>8.313642885576286</v>
+        <v>2.171507675021743</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0831827357924908</v>
       </c>
       <c r="K9">
-        <v>0.6141875968849675</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1824798497744666</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7078526910910909</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.9529746831428341</v>
+      </c>
+      <c r="N9">
+        <v>0.7528404201330687</v>
+      </c>
+      <c r="O9">
+        <v>1.493039989399207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.022365153698786</v>
+        <v>4.624420115172654</v>
       </c>
       <c r="C10">
-        <v>0.4852792314493968</v>
+        <v>1.140995925637526</v>
       </c>
       <c r="D10">
-        <v>0.5228214035807639</v>
+        <v>0.03063859310652006</v>
       </c>
       <c r="E10">
-        <v>0.1237642936908188</v>
+        <v>0.05446986947840671</v>
       </c>
       <c r="F10">
-        <v>9.905477984731363</v>
+        <v>2.480235181734969</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.09013640273482793</v>
       </c>
       <c r="K10">
-        <v>0.7539512450940293</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2210262968017176</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.8629800120768252</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.138728782004954</v>
+      </c>
+      <c r="N10">
+        <v>0.6710173743083416</v>
+      </c>
+      <c r="O10">
+        <v>1.709641118439237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.286223011972879</v>
+        <v>4.983898253452423</v>
       </c>
       <c r="C11">
-        <v>0.528768082055791</v>
+        <v>1.230721691355654</v>
       </c>
       <c r="D11">
-        <v>0.5596828807829866</v>
+        <v>0.03209918638538767</v>
       </c>
       <c r="E11">
-        <v>0.1326858015381731</v>
+        <v>0.0565877117392688</v>
       </c>
       <c r="F11">
-        <v>10.66048343551307</v>
+        <v>2.628544099556848</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.09353700531131892</v>
       </c>
       <c r="K11">
-        <v>0.8207643392723227</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2393626206867907</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9369161186746524</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.225319731236169</v>
+      </c>
+      <c r="N11">
+        <v>0.6361756215470962</v>
+      </c>
+      <c r="O11">
+        <v>1.813956145925971</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.388305904545575</v>
+        <v>5.12140744117022</v>
       </c>
       <c r="C12">
-        <v>0.5456505543600088</v>
+        <v>1.265039083982856</v>
       </c>
       <c r="D12">
-        <v>0.5739139897604559</v>
+        <v>0.03265689166827812</v>
       </c>
       <c r="E12">
-        <v>0.1361272179326676</v>
+        <v>0.05740442698511217</v>
       </c>
       <c r="F12">
-        <v>10.95177609081503</v>
+        <v>2.685994539164199</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.09486294209680324</v>
       </c>
       <c r="K12">
-        <v>0.8466314952249903</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2464453236595574</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9655003900285735</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.258460349246235</v>
+      </c>
+      <c r="N12">
+        <v>0.6233550384180973</v>
+      </c>
+      <c r="O12">
+        <v>1.854406923004177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.366217347944314</v>
+        <v>5.091727366852012</v>
       </c>
       <c r="C13">
-        <v>0.5419947650255494</v>
+        <v>1.257632175512299</v>
       </c>
       <c r="D13">
-        <v>0.5708360524648413</v>
+        <v>0.03253656302959484</v>
       </c>
       <c r="E13">
-        <v>0.1353830542008332</v>
+        <v>0.05722785232989125</v>
       </c>
       <c r="F13">
-        <v>10.88878432319962</v>
+        <v>2.673561505453677</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.09457560868970916</v>
       </c>
       <c r="K13">
-        <v>0.8410335155222199</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2449133197876563</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9593163470718835</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.251306474969638</v>
+      </c>
+      <c r="N13">
+        <v>0.6260990454047786</v>
+      </c>
+      <c r="O13">
+        <v>1.845650892267884</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.294575585520306</v>
+        <v>4.995182249472691</v>
       </c>
       <c r="C14">
-        <v>0.5301482045330204</v>
+        <v>1.233537859278329</v>
       </c>
       <c r="D14">
-        <v>0.5608479029606599</v>
+        <v>0.03214497253055626</v>
       </c>
       <c r="E14">
-        <v>0.1329675980176113</v>
+        <v>0.05665459911875814</v>
       </c>
       <c r="F14">
-        <v>10.6843341954858</v>
+        <v>2.633243773723649</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.09364530021638018</v>
       </c>
       <c r="K14">
-        <v>0.8228804405149859</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2399423775604248</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9392553605753449</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.228038897537104</v>
+      </c>
+      <c r="N14">
+        <v>0.6351131929196541</v>
+      </c>
+      <c r="O14">
+        <v>1.817264312544012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.250987520328522</v>
+        <v>4.936232115218502</v>
       </c>
       <c r="C15">
-        <v>0.5229483893783993</v>
+        <v>1.218825380453438</v>
       </c>
       <c r="D15">
-        <v>0.5547669949317822</v>
+        <v>0.03190573408256014</v>
       </c>
       <c r="E15">
-        <v>0.1314966176594154</v>
+        <v>0.05630543008036071</v>
       </c>
       <c r="F15">
-        <v>10.559835497221</v>
+        <v>2.608720887259864</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.09308056370665696</v>
       </c>
       <c r="K15">
-        <v>0.811838278470411</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2369164365991807</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9270471329080721</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.213834065500194</v>
+      </c>
+      <c r="N15">
+        <v>0.6406842103615205</v>
+      </c>
+      <c r="O15">
+        <v>1.800004027425899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.005402123402632</v>
+        <v>4.60110918726275</v>
       </c>
       <c r="C16">
-        <v>0.4824904595104158</v>
+        <v>1.135176714518877</v>
       </c>
       <c r="D16">
-        <v>0.5204476268977487</v>
+        <v>0.03054374626997358</v>
       </c>
       <c r="E16">
-        <v>0.1231894535501965</v>
+        <v>0.05433344202736379</v>
       </c>
       <c r="F16">
-        <v>9.856835085631019</v>
+        <v>2.470714209285958</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.08991927857670845</v>
       </c>
       <c r="K16">
-        <v>0.7496581658927894</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2198460454649691</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8582241762134899</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.133116055107848</v>
+      </c>
+      <c r="N16">
+        <v>0.6733448193314544</v>
+      </c>
+      <c r="O16">
+        <v>1.702949955884506</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.858171620063217</v>
+        <v>4.397758990351974</v>
       </c>
       <c r="C17">
-        <v>0.4583196990632814</v>
+        <v>1.084408346837677</v>
       </c>
       <c r="D17">
-        <v>0.4998229978166933</v>
+        <v>0.02971567448865997</v>
       </c>
       <c r="E17">
-        <v>0.1181936416286717</v>
+        <v>0.0531483208578738</v>
       </c>
       <c r="F17">
-        <v>9.434097187674752</v>
+        <v>2.388172952290873</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.08804347151399838</v>
       </c>
       <c r="K17">
-        <v>0.7124073037491314</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2095948445975466</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8169329432060977</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.084167245111466</v>
+      </c>
+      <c r="N17">
+        <v>0.6940114934508657</v>
+      </c>
+      <c r="O17">
+        <v>1.644970547920494</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.774630199486523</v>
+        <v>4.281555246850758</v>
       </c>
       <c r="C18">
-        <v>0.4446314106484692</v>
+        <v>1.055392285750258</v>
       </c>
       <c r="D18">
-        <v>0.4881024904363187</v>
+        <v>0.02924192278830873</v>
       </c>
       <c r="E18">
-        <v>0.1153537695410627</v>
+        <v>0.05247526211378073</v>
       </c>
       <c r="F18">
-        <v>9.193789457801273</v>
+        <v>2.341427404044623</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.08698662639582011</v>
       </c>
       <c r="K18">
-        <v>0.6912789018852479</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2037723926089825</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.7934932260835055</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.056206630090045</v>
+      </c>
+      <c r="N18">
+        <v>0.7061203647979042</v>
+      </c>
+      <c r="O18">
+        <v>1.612158739499563</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.746530116483143</v>
+        <v>4.242335005992516</v>
       </c>
       <c r="C19">
-        <v>0.4400314097267142</v>
+        <v>1.04559813994905</v>
       </c>
       <c r="D19">
-        <v>0.4841571804100795</v>
+        <v>0.02908193488045541</v>
       </c>
       <c r="E19">
-        <v>0.1143977127503994</v>
+        <v>0.05224880978621727</v>
       </c>
       <c r="F19">
-        <v>9.112886948960607</v>
+        <v>2.325721040630555</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.08663247087165615</v>
       </c>
       <c r="K19">
-        <v>0.6841734642212671</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2018130205502118</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.78560735918483</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.04677144649655</v>
+      </c>
+      <c r="N19">
+        <v>0.7102574566050066</v>
+      </c>
+      <c r="O19">
+        <v>1.601138003493844</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.873723865951547</v>
+        <v>4.419326125230498</v>
       </c>
       <c r="C20">
-        <v>0.4608700388226623</v>
+        <v>1.089793262954856</v>
       </c>
       <c r="D20">
-        <v>0.5020034714104327</v>
+        <v>0.02980355742077023</v>
       </c>
       <c r="E20">
-        <v>0.1187219073250461</v>
+        <v>0.05327357978168124</v>
       </c>
       <c r="F20">
-        <v>9.478798103441562</v>
+        <v>2.396882975342464</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.08824084229403439</v>
       </c>
       <c r="K20">
-        <v>0.7163412770810282</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.210678308329534</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8212957120291122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.089357566152316</v>
+      </c>
+      <c r="N20">
+        <v>0.6917883075534874</v>
+      </c>
+      <c r="O20">
+        <v>1.651086232352526</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.315556330507377</v>
+        <v>5.023500616430056</v>
       </c>
       <c r="C21">
-        <v>0.5336158789538388</v>
+        <v>1.240605256712001</v>
       </c>
       <c r="D21">
-        <v>0.5637738258577087</v>
+        <v>0.03225986117593038</v>
       </c>
       <c r="E21">
-        <v>0.1336752712170046</v>
+        <v>0.05682256510457506</v>
       </c>
       <c r="F21">
-        <v>10.74423146614038</v>
+        <v>2.645049729586475</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.09391748266431676</v>
       </c>
       <c r="K21">
-        <v>0.8281961570004128</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2413984749324811</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.9451309378161028</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.234863208325166</v>
+      </c>
+      <c r="N21">
+        <v>0.6324551235138571</v>
+      </c>
+      <c r="O21">
+        <v>1.825575376274969</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.617176052989407</v>
+        <v>5.426536011829967</v>
       </c>
       <c r="C22">
-        <v>0.5836225805201423</v>
+        <v>1.341182088934318</v>
       </c>
       <c r="D22">
-        <v>0.6057628270331747</v>
+        <v>0.03389245874542013</v>
       </c>
       <c r="E22">
-        <v>0.1438219778555236</v>
+        <v>0.05922872118460276</v>
       </c>
       <c r="F22">
-        <v>11.60325050832228</v>
+        <v>2.814842576940066</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.09785242638224645</v>
       </c>
       <c r="K22">
-        <v>0.9046641255552572</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2623014085990718</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.029543992900692</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.332030316561443</v>
+      </c>
+      <c r="N22">
+        <v>0.5958702427980143</v>
+      </c>
+      <c r="O22">
+        <v>1.945210744702848</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.454873511297762</v>
+        <v>5.210606516560404</v>
       </c>
       <c r="C23">
-        <v>0.5566773061389654</v>
+        <v>1.287298930491431</v>
       </c>
       <c r="D23">
-        <v>0.5831853737470283</v>
+        <v>0.03301836706922856</v>
       </c>
       <c r="E23">
-        <v>0.1383682552317929</v>
+        <v>0.05793604978808276</v>
       </c>
       <c r="F23">
-        <v>11.14148712637575</v>
+        <v>2.723468032665579</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.0957302140439964</v>
       </c>
       <c r="K23">
-        <v>0.8635049299666093</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.251060460505748</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.9841337535125945</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.279962795131226</v>
+      </c>
+      <c r="N23">
+        <v>0.6151843560163996</v>
+      </c>
+      <c r="O23">
+        <v>1.880804263283437</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.866689286603957</v>
+        <v>4.409573442751366</v>
       </c>
       <c r="C24">
-        <v>0.4597163886651856</v>
+        <v>1.087358212568461</v>
       </c>
       <c r="D24">
-        <v>0.5010172566160236</v>
+        <v>0.02976381837698483</v>
       </c>
       <c r="E24">
-        <v>0.1184829786091974</v>
+        <v>0.05321692453012972</v>
       </c>
       <c r="F24">
-        <v>9.458580385558435</v>
+        <v>2.392942978718082</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.08815154404476999</v>
       </c>
       <c r="K24">
-        <v>0.7145618392616555</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2101882546553497</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8193223798424754</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.08701046283791</v>
+      </c>
+      <c r="N24">
+        <v>0.6927927041265178</v>
+      </c>
+      <c r="O24">
+        <v>1.648319716303035</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.274895488017194</v>
+        <v>3.573875787826978</v>
       </c>
       <c r="C25">
-        <v>0.3631144660929237</v>
+        <v>0.878584387441208</v>
       </c>
       <c r="D25">
-        <v>0.4176917053578677</v>
+        <v>0.02634819535379762</v>
       </c>
       <c r="E25">
-        <v>0.09828913556233942</v>
+        <v>0.04845048522612849</v>
       </c>
       <c r="F25">
-        <v>7.749356144968203</v>
+        <v>2.063841462008853</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.08080785499258525</v>
       </c>
       <c r="K25">
-        <v>0.5650072368769443</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1688581045861675</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.6531281440279955</v>
+        <v>0.8861217131110664</v>
+      </c>
+      <c r="N25">
+        <v>0.7848968318300855</v>
+      </c>
+      <c r="O25">
+        <v>1.417694445368639</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_10/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.976349595142835</v>
+        <v>4.073614101340695</v>
       </c>
       <c r="C2">
-        <v>0.7290996646474639</v>
+        <v>0.8987589232753805</v>
       </c>
       <c r="D2">
-        <v>0.02389401154740867</v>
+        <v>0.005326703920545128</v>
       </c>
       <c r="E2">
-        <v>0.04517221511828318</v>
+        <v>0.0169353274386414</v>
       </c>
       <c r="F2">
-        <v>1.840072375853509</v>
+        <v>2.347516276311694</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.180922714724055</v>
       </c>
       <c r="J2">
-        <v>0.0759851928557076</v>
+        <v>0.04047615877266253</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.3775343089640728</v>
       </c>
       <c r="M2">
-        <v>0.7428256489119391</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8589682469518891</v>
+        <v>1.022697363716272</v>
       </c>
       <c r="O2">
-        <v>1.261467982837914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.57968443333499</v>
+        <v>3.567536037832099</v>
       </c>
       <c r="C3">
-        <v>0.629713135335777</v>
+        <v>0.776457577861521</v>
       </c>
       <c r="D3">
-        <v>0.02226014060381232</v>
+        <v>0.004425833641622745</v>
       </c>
       <c r="E3">
-        <v>0.0430743657321333</v>
+        <v>0.01687732588400426</v>
       </c>
       <c r="F3">
-        <v>1.697836929723124</v>
+        <v>2.194424572065174</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.128738086773318</v>
       </c>
       <c r="J3">
-        <v>0.07302549303507178</v>
+        <v>0.04150745805436173</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3396151041107061</v>
       </c>
       <c r="M3">
-        <v>0.6479039365766184</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9126601489451467</v>
+        <v>1.083624820149733</v>
       </c>
       <c r="O3">
-        <v>1.162464186839117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.33939796289593</v>
+        <v>3.262132091957199</v>
       </c>
       <c r="C4">
-        <v>0.5694281919585933</v>
+        <v>0.7026647741236047</v>
       </c>
       <c r="D4">
-        <v>0.02126904997991019</v>
+        <v>0.003906809859847371</v>
       </c>
       <c r="E4">
-        <v>0.04184141812348585</v>
+        <v>0.01684850358602874</v>
       </c>
       <c r="F4">
-        <v>1.614519926491681</v>
+        <v>2.105532781300909</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.099390696552341</v>
       </c>
       <c r="J4">
-        <v>0.07134413773544068</v>
+        <v>0.04217500221438364</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3168870142310141</v>
       </c>
       <c r="M4">
-        <v>0.5905022331251075</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.947230774992164</v>
+        <v>1.122734300350157</v>
       </c>
       <c r="O4">
-        <v>1.104599316177826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.2421908672477</v>
+        <v>3.138858295513387</v>
       </c>
       <c r="C5">
-        <v>0.5450193868284714</v>
+        <v>0.6728756305766979</v>
       </c>
       <c r="D5">
-        <v>0.02086791349535488</v>
+        <v>0.003702540600638571</v>
       </c>
       <c r="E5">
-        <v>0.04135204274683169</v>
+        <v>0.01683834631846914</v>
       </c>
       <c r="F5">
-        <v>1.581492353350271</v>
+        <v>2.070487095526175</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.088057705497</v>
       </c>
       <c r="J5">
-        <v>0.07069092908278662</v>
+        <v>0.04245554121320883</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3077511460602835</v>
       </c>
       <c r="M5">
-        <v>0.5673050739684129</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9617053834338343</v>
+        <v>1.139082822024605</v>
       </c>
       <c r="O5">
-        <v>1.081690973230323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.226089624988902</v>
+        <v>3.118455679510134</v>
       </c>
       <c r="C6">
-        <v>0.5409750784244522</v>
+        <v>0.6679449544343754</v>
       </c>
       <c r="D6">
-        <v>0.0208014623555961</v>
+        <v>0.003669022229342289</v>
       </c>
       <c r="E6">
-        <v>0.04127154878721129</v>
+        <v>0.01683675238715521</v>
       </c>
       <c r="F6">
-        <v>1.576061639124532</v>
+        <v>2.064736031899884</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.086212281647242</v>
       </c>
       <c r="J6">
-        <v>0.07058433269880027</v>
+        <v>0.0425026350697415</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3062413817900165</v>
       </c>
       <c r="M6">
-        <v>0.5634642026654859</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.964131786657024</v>
+        <v>1.141821859201894</v>
       </c>
       <c r="O6">
-        <v>1.077925896052008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.338084252086503</v>
+        <v>3.260464998651457</v>
       </c>
       <c r="C7">
-        <v>0.5690984027081356</v>
+        <v>0.7022619421922798</v>
       </c>
       <c r="D7">
-        <v>0.0212636293934878</v>
+        <v>0.003904027387060083</v>
       </c>
       <c r="E7">
-        <v>0.04183476637315131</v>
+        <v>0.01684836031972387</v>
       </c>
       <c r="F7">
-        <v>1.61407086843974</v>
+        <v>2.105055504975169</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.099235384546347</v>
       </c>
       <c r="J7">
-        <v>0.07133520175258568</v>
+        <v>0.04217875136085603</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3167633114181712</v>
       </c>
       <c r="M7">
-        <v>0.5901886346866405</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9474244392660971</v>
+        <v>1.122953138302449</v>
       </c>
       <c r="O7">
-        <v>1.104287725060644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.838832186423929</v>
+        <v>3.897911744177804</v>
       </c>
       <c r="C8">
-        <v>0.6946602704620091</v>
+        <v>0.8562910742635665</v>
       </c>
       <c r="D8">
-        <v>0.02332794411229955</v>
+        <v>0.005008153171701224</v>
       </c>
       <c r="E8">
-        <v>0.04443692799609344</v>
+        <v>0.01691384260887691</v>
       </c>
       <c r="F8">
-        <v>1.790142690979138</v>
+        <v>2.29360375352428</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.162338113693799</v>
       </c>
       <c r="J8">
-        <v>0.07493508970241791</v>
+        <v>0.04082455141022656</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3643362531199443</v>
       </c>
       <c r="M8">
-        <v>0.7098969649240559</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8771380942586688</v>
+        <v>1.043342096715389</v>
       </c>
       <c r="O8">
-        <v>1.226685021072456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.852211168949282</v>
+        <v>5.198241375368752</v>
       </c>
       <c r="C9">
-        <v>0.9481480369708493</v>
+        <v>1.170927427450181</v>
       </c>
       <c r="D9">
-        <v>0.02748805853739711</v>
+        <v>0.007512366229072143</v>
       </c>
       <c r="E9">
-        <v>0.05001721460262587</v>
+        <v>0.01710236156997152</v>
       </c>
       <c r="F9">
-        <v>2.171507675021743</v>
+        <v>2.709157226763836</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.310014610703476</v>
       </c>
       <c r="J9">
-        <v>0.0831827357924908</v>
+        <v>0.03844723014150198</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.4626982849513581</v>
       </c>
       <c r="M9">
-        <v>0.9529746831428341</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7528404201330687</v>
+        <v>0.9015234580129388</v>
       </c>
       <c r="O9">
-        <v>1.493039989399207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.624420115172654</v>
+        <v>6.196815485640116</v>
       </c>
       <c r="C10">
-        <v>1.140995925637526</v>
+        <v>1.413325145414774</v>
       </c>
       <c r="D10">
-        <v>0.03063859310652006</v>
+        <v>0.009668286516699709</v>
       </c>
       <c r="E10">
-        <v>0.05446986947840671</v>
+        <v>0.01728771174367405</v>
       </c>
       <c r="F10">
-        <v>2.480235181734969</v>
+        <v>3.050659691088896</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.437094101330075</v>
       </c>
       <c r="J10">
-        <v>0.09013640273482793</v>
+        <v>0.03687932204975475</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.5391095918274971</v>
       </c>
       <c r="M10">
-        <v>1.138728782004954</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6710173743083416</v>
+        <v>0.8073096773357733</v>
       </c>
       <c r="O10">
-        <v>1.709641118439237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.983898253452423</v>
+        <v>6.663719171879507</v>
       </c>
       <c r="C11">
-        <v>1.230721691355654</v>
+        <v>1.526961911559624</v>
       </c>
       <c r="D11">
-        <v>0.03209918638538767</v>
+        <v>0.01074694331929749</v>
       </c>
       <c r="E11">
-        <v>0.0565877117392688</v>
+        <v>0.01738500885406791</v>
       </c>
       <c r="F11">
-        <v>2.628544099556848</v>
+        <v>3.216012477520138</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.499971581061075</v>
       </c>
       <c r="J11">
-        <v>0.09353700531131892</v>
+        <v>0.0362071599031708</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.5750424227272788</v>
       </c>
       <c r="M11">
-        <v>1.225319731236169</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6361756215470962</v>
+        <v>0.7669449732897746</v>
       </c>
       <c r="O11">
-        <v>1.813956145925971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.12140744117022</v>
+        <v>6.842653578349655</v>
       </c>
       <c r="C12">
-        <v>1.265039083982856</v>
+        <v>1.570567031853216</v>
       </c>
       <c r="D12">
-        <v>0.03265689166827812</v>
+        <v>0.01117239739398102</v>
       </c>
       <c r="E12">
-        <v>0.05740442698511217</v>
+        <v>0.01742400487435303</v>
       </c>
       <c r="F12">
-        <v>2.685994539164199</v>
+        <v>3.280271639044628</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.524610121006816</v>
       </c>
       <c r="J12">
-        <v>0.09486294209680324</v>
+        <v>0.03595876263225328</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.5888439757888904</v>
       </c>
       <c r="M12">
-        <v>1.258460349246235</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6233550384180973</v>
+        <v>0.7520507143811628</v>
       </c>
       <c r="O12">
-        <v>1.854406923004177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.091727366852012</v>
+        <v>6.80401682765887</v>
       </c>
       <c r="C13">
-        <v>1.257632175512299</v>
+        <v>1.561148840489466</v>
       </c>
       <c r="D13">
-        <v>0.03253656302959484</v>
+        <v>0.01107996127638167</v>
       </c>
       <c r="E13">
-        <v>0.05722785232989125</v>
+        <v>0.01741550559904348</v>
       </c>
       <c r="F13">
-        <v>2.673561505453677</v>
+        <v>3.26635560653034</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.519265208755328</v>
       </c>
       <c r="J13">
-        <v>0.09457560868970916</v>
+        <v>0.03601198260339622</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.5858624611658314</v>
       </c>
       <c r="M13">
-        <v>1.251306474969638</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6260990454047786</v>
+        <v>0.7552405066421386</v>
       </c>
       <c r="O13">
-        <v>1.845650892267884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.995182249472691</v>
+        <v>6.678395641462089</v>
       </c>
       <c r="C14">
-        <v>1.233537859278329</v>
+        <v>1.530537287027187</v>
       </c>
       <c r="D14">
-        <v>0.03214497253055626</v>
+        <v>0.01078158685389496</v>
       </c>
       <c r="E14">
-        <v>0.05665459911875814</v>
+        <v>0.01738817214266342</v>
       </c>
       <c r="F14">
-        <v>2.633243773723649</v>
+        <v>3.221264900352509</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.501981392940891</v>
       </c>
       <c r="J14">
-        <v>0.09364530021638018</v>
+        <v>0.03618659973238714</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.5761738246352053</v>
       </c>
       <c r="M14">
-        <v>1.228038897537104</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6351131929196541</v>
+        <v>0.7657115763343469</v>
       </c>
       <c r="O14">
-        <v>1.817264312544012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.936232115218502</v>
+        <v>6.601736072421772</v>
       </c>
       <c r="C15">
-        <v>1.218825380453438</v>
+        <v>1.511864341418686</v>
       </c>
       <c r="D15">
-        <v>0.03190573408256014</v>
+        <v>0.01060113074240832</v>
       </c>
       <c r="E15">
-        <v>0.05630543008036071</v>
+        <v>0.01737171914938029</v>
       </c>
       <c r="F15">
-        <v>2.608720887259864</v>
+        <v>3.193866161460107</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.491505590893127</v>
       </c>
       <c r="J15">
-        <v>0.09308056370665696</v>
+        <v>0.03629436408157893</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.5702654211855247</v>
       </c>
       <c r="M15">
-        <v>1.213834065500194</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6406842103615205</v>
+        <v>0.772177363226902</v>
       </c>
       <c r="O15">
-        <v>1.800004027425899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.60110918726275</v>
+        <v>6.166582258621133</v>
       </c>
       <c r="C16">
-        <v>1.135176714518877</v>
+        <v>1.405973832054428</v>
       </c>
       <c r="D16">
-        <v>0.03054374626997358</v>
+        <v>0.00960000263014571</v>
       </c>
       <c r="E16">
-        <v>0.05433344202736379</v>
+        <v>0.01728163760989387</v>
       </c>
       <c r="F16">
-        <v>2.470714209285958</v>
+        <v>3.040071701820608</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.433095096529385</v>
       </c>
       <c r="J16">
-        <v>0.08991927857670845</v>
+        <v>0.03692409504367333</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.5367870371484997</v>
       </c>
       <c r="M16">
-        <v>1.133116055107848</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6733448193314544</v>
+        <v>0.8100004544656869</v>
       </c>
       <c r="O16">
-        <v>1.702949955884506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.397758990351974</v>
+        <v>5.903076417108934</v>
       </c>
       <c r="C17">
-        <v>1.084408346837677</v>
+        <v>1.341935822051028</v>
       </c>
       <c r="D17">
-        <v>0.02971567448865997</v>
+        <v>0.009012853843918478</v>
       </c>
       <c r="E17">
-        <v>0.0531483208578738</v>
+        <v>0.01722988790577895</v>
       </c>
       <c r="F17">
-        <v>2.388172952290873</v>
+        <v>2.948423249800101</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.398626951046623</v>
       </c>
       <c r="J17">
-        <v>0.08804347151399838</v>
+        <v>0.03732109150467089</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.5165669419873495</v>
       </c>
       <c r="M17">
-        <v>1.084167245111466</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6940114934508657</v>
+        <v>0.8338640818155909</v>
       </c>
       <c r="O17">
-        <v>1.644970547920494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.281555246850758</v>
+        <v>5.752684487884039</v>
       </c>
       <c r="C18">
-        <v>1.055392285750258</v>
+        <v>1.305413958197391</v>
       </c>
       <c r="D18">
-        <v>0.02924192278830873</v>
+        <v>0.008684159164436878</v>
       </c>
       <c r="E18">
-        <v>0.05247526211378073</v>
+        <v>0.01720132489299414</v>
       </c>
       <c r="F18">
-        <v>2.341427404044623</v>
+        <v>2.896637093435203</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.379272175122182</v>
       </c>
       <c r="J18">
-        <v>0.08698662639582011</v>
+        <v>0.03755328553345194</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.5050455445775981</v>
       </c>
       <c r="M18">
-        <v>1.056206630090045</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7061203647979042</v>
+        <v>0.8478223410660135</v>
       </c>
       <c r="O18">
-        <v>1.612158739499563</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.242335005992516</v>
+        <v>5.701956477599538</v>
       </c>
       <c r="C19">
-        <v>1.04559813994905</v>
+        <v>1.293099199172104</v>
       </c>
       <c r="D19">
-        <v>0.02908193488045541</v>
+        <v>0.008574336150802608</v>
       </c>
       <c r="E19">
-        <v>0.05224880978621727</v>
+        <v>0.01719185249619615</v>
       </c>
       <c r="F19">
-        <v>2.325721040630555</v>
+        <v>2.879256683107997</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.372796952540497</v>
       </c>
       <c r="J19">
-        <v>0.08663247087165615</v>
+        <v>0.03763255755816086</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.5011625257671852</v>
       </c>
       <c r="M19">
-        <v>1.04677144649655</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7102574566050066</v>
+        <v>0.8525873879745234</v>
       </c>
       <c r="O19">
-        <v>1.601138003493844</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.419326125230498</v>
+        <v>5.931003895727997</v>
       </c>
       <c r="C20">
-        <v>1.089793262954856</v>
+        <v>1.348719973467553</v>
       </c>
       <c r="D20">
-        <v>0.02980355742077023</v>
+        <v>0.009074403882145532</v>
       </c>
       <c r="E20">
-        <v>0.05327357978168124</v>
+        <v>0.01723527043297041</v>
       </c>
       <c r="F20">
-        <v>2.396882975342464</v>
+        <v>2.95808197786701</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.402246782199882</v>
       </c>
       <c r="J20">
-        <v>0.08824084229403439</v>
+        <v>0.03727843030733702</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.5187079821407963</v>
       </c>
       <c r="M20">
-        <v>1.089357566152316</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6917883075534874</v>
+        <v>0.8312994709042272</v>
       </c>
       <c r="O20">
-        <v>1.651086232352526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.023500616430056</v>
+        <v>6.715233199074646</v>
       </c>
       <c r="C21">
-        <v>1.240605256712001</v>
+        <v>1.539512311871647</v>
       </c>
       <c r="D21">
-        <v>0.03225986117593038</v>
+        <v>0.01086874005182104</v>
       </c>
       <c r="E21">
-        <v>0.05682256510457506</v>
+        <v>0.01739613972006138</v>
       </c>
       <c r="F21">
-        <v>2.645049729586475</v>
+        <v>3.234462750090358</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.50703473251383</v>
       </c>
       <c r="J21">
-        <v>0.09391748266431676</v>
+        <v>0.03613514196672618</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.5790141078426387</v>
       </c>
       <c r="M21">
-        <v>1.234863208325166</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6324551235138571</v>
+        <v>0.7626250778638735</v>
       </c>
       <c r="O21">
-        <v>1.825575376274969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.426536011829967</v>
+        <v>7.240351684340567</v>
       </c>
       <c r="C22">
-        <v>1.341182088934318</v>
+        <v>1.667598611746484</v>
       </c>
       <c r="D22">
-        <v>0.03389245874542013</v>
+        <v>0.01214217604873014</v>
       </c>
       <c r="E22">
-        <v>0.05922872118460276</v>
+        <v>0.01751398981337138</v>
       </c>
       <c r="F22">
-        <v>2.814842576940066</v>
+        <v>3.424790316569556</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.580403382769063</v>
       </c>
       <c r="J22">
-        <v>0.09785242638224645</v>
+        <v>0.03542382871955319</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.6195763751628363</v>
       </c>
       <c r="M22">
-        <v>1.332030316561443</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5958702427980143</v>
+        <v>0.7200397202996243</v>
       </c>
       <c r="O22">
-        <v>1.945210744702848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.210606516560404</v>
+        <v>6.958821575552292</v>
       </c>
       <c r="C23">
-        <v>1.287298930491431</v>
+        <v>1.598893417146655</v>
       </c>
       <c r="D23">
-        <v>0.03301836706922856</v>
+        <v>0.0114522152513068</v>
       </c>
       <c r="E23">
-        <v>0.05793604978808276</v>
+        <v>0.01744981983130134</v>
       </c>
       <c r="F23">
-        <v>2.723468032665579</v>
+        <v>3.322246282242446</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.540761833185513</v>
       </c>
       <c r="J23">
-        <v>0.0957302140439964</v>
+        <v>0.03580010309588388</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.5978129305458566</v>
       </c>
       <c r="M23">
-        <v>1.279962795131226</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6151843560163996</v>
+        <v>0.7425462108629475</v>
       </c>
       <c r="O23">
-        <v>1.880804263283437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.409573442751366</v>
+        <v>5.918374475844132</v>
       </c>
       <c r="C24">
-        <v>1.087358212568461</v>
+        <v>1.345651948050033</v>
       </c>
       <c r="D24">
-        <v>0.02976381837698483</v>
+        <v>0.009046549711092311</v>
       </c>
       <c r="E24">
-        <v>0.05321692453012972</v>
+        <v>0.01723283331099229</v>
       </c>
       <c r="F24">
-        <v>2.392942978718082</v>
+        <v>2.953712467069352</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.400608826654761</v>
       </c>
       <c r="J24">
-        <v>0.08815154404476999</v>
+        <v>0.03729770513103858</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.5177396977174595</v>
       </c>
       <c r="M24">
-        <v>1.08701046283791</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6927927041265178</v>
+        <v>0.8324581902646386</v>
       </c>
       <c r="O24">
-        <v>1.648319716303035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.573875787826978</v>
+        <v>4.839872671867454</v>
       </c>
       <c r="C25">
-        <v>0.878584387441208</v>
+        <v>1.084120079061961</v>
       </c>
       <c r="D25">
-        <v>0.02634819535379762</v>
+        <v>0.00678822581371108</v>
       </c>
       <c r="E25">
-        <v>0.04845048522612849</v>
+        <v>0.01704396961513927</v>
       </c>
       <c r="F25">
-        <v>2.063841462008853</v>
+        <v>2.591038191191004</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.267117597919423</v>
       </c>
       <c r="J25">
-        <v>0.08080785499258525</v>
+        <v>0.03905969143419341</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4354442730935375</v>
       </c>
       <c r="M25">
-        <v>0.8861217131110664</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7848968318300855</v>
+        <v>0.9382371283349684</v>
       </c>
       <c r="O25">
-        <v>1.417694445368639</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_10/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.073614101340695</v>
+        <v>3.229934581839643</v>
       </c>
       <c r="C2">
-        <v>0.8987589232753805</v>
+        <v>0.4056676705253324</v>
       </c>
       <c r="D2">
-        <v>0.005326703920545128</v>
+        <v>0.01145294848073064</v>
       </c>
       <c r="E2">
-        <v>0.0169353274386414</v>
+        <v>0.05052024881177442</v>
       </c>
       <c r="F2">
-        <v>2.347516276311694</v>
+        <v>3.628100717984239</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.02672462365074526</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>1.180922714724055</v>
+        <v>2.057488557387394</v>
       </c>
       <c r="J2">
-        <v>0.04047615877266253</v>
+        <v>0.1112702309759559</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3775343089640728</v>
+        <v>0.4919442578564315</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.022697363716272</v>
+        <v>2.150983187293811</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.567536037832099</v>
+        <v>3.117137602727496</v>
       </c>
       <c r="C3">
-        <v>0.776457577861521</v>
+        <v>0.3752551547852363</v>
       </c>
       <c r="D3">
-        <v>0.004425833641622745</v>
+        <v>0.01110465608546107</v>
       </c>
       <c r="E3">
-        <v>0.01687732588400426</v>
+        <v>0.05058848726883824</v>
       </c>
       <c r="F3">
-        <v>2.194424572065174</v>
+        <v>3.615467914413358</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>1.128738086773318</v>
+        <v>2.058799223821048</v>
       </c>
       <c r="J3">
-        <v>0.04150745805436173</v>
+        <v>0.1119254443326003</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3396151041107061</v>
+        <v>0.4853832162078078</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.083624820149733</v>
+        <v>2.17463226720351</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.262132091957199</v>
+        <v>3.049638617032031</v>
       </c>
       <c r="C4">
-        <v>0.7026647741236047</v>
+        <v>0.3568102768786048</v>
       </c>
       <c r="D4">
-        <v>0.003906809859847371</v>
+        <v>0.01088656952543943</v>
       </c>
       <c r="E4">
-        <v>0.01684850358602874</v>
+        <v>0.0506343506248248</v>
       </c>
       <c r="F4">
-        <v>2.105532781300909</v>
+        <v>3.609672594614665</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>1.099390696552341</v>
+        <v>2.060670984191844</v>
       </c>
       <c r="J4">
-        <v>0.04217500221438364</v>
+        <v>0.1123519967546915</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3168870142310141</v>
+        <v>0.4815950824088304</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.122734300350157</v>
+        <v>2.189888701198651</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.138858295513387</v>
+        <v>3.022573837985931</v>
       </c>
       <c r="C5">
-        <v>0.6728756305766979</v>
+        <v>0.3493507527682596</v>
       </c>
       <c r="D5">
-        <v>0.003702540600638571</v>
+        <v>0.01079659825546386</v>
       </c>
       <c r="E5">
-        <v>0.01683834631846914</v>
+        <v>0.05065403867706086</v>
       </c>
       <c r="F5">
-        <v>2.070487095526175</v>
+        <v>3.607802938907923</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>1.088057705497</v>
+        <v>2.061701419700398</v>
       </c>
       <c r="J5">
-        <v>0.04245554121320883</v>
+        <v>0.1125319266524247</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3077511460602835</v>
+        <v>0.4801118100636188</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.139082822024605</v>
+        <v>2.19629057731856</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.118455679510134</v>
+        <v>3.018106405460458</v>
       </c>
       <c r="C6">
-        <v>0.6679449544343754</v>
+        <v>0.3481155259416084</v>
       </c>
       <c r="D6">
-        <v>0.003669022229342289</v>
+        <v>0.01078159119555977</v>
       </c>
       <c r="E6">
-        <v>0.01683675238715521</v>
+        <v>0.05065736820472655</v>
       </c>
       <c r="F6">
-        <v>2.064736031899884</v>
+        <v>3.60752216412223</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>1.086212281647242</v>
+        <v>2.061888671596051</v>
       </c>
       <c r="J6">
-        <v>0.0425026350697415</v>
+        <v>0.1125621729404136</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3062413817900165</v>
+        <v>0.4798691626971703</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.141821859201894</v>
+        <v>2.197364754984271</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.260464998651457</v>
+        <v>3.049271824786217</v>
       </c>
       <c r="C7">
-        <v>0.7022619421922798</v>
+        <v>0.3567094454075743</v>
       </c>
       <c r="D7">
-        <v>0.003904027387060083</v>
+        <v>0.01088536063736179</v>
       </c>
       <c r="E7">
-        <v>0.01684836031972387</v>
+        <v>0.05063461210027653</v>
       </c>
       <c r="F7">
-        <v>2.105055504975169</v>
+        <v>3.609645389360224</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>1.099235384546347</v>
+        <v>2.060683798037161</v>
       </c>
       <c r="J7">
-        <v>0.04217875136085603</v>
+        <v>0.1123543986162749</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3167633114181712</v>
+        <v>0.4815748338533581</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.122953138302449</v>
+        <v>2.189974291445662</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.897911744177804</v>
+        <v>3.19067668873538</v>
       </c>
       <c r="C8">
-        <v>0.8562910742635665</v>
+        <v>0.3951336593515578</v>
       </c>
       <c r="D8">
-        <v>0.005008153171701224</v>
+        <v>0.01133371497406799</v>
       </c>
       <c r="E8">
-        <v>0.01691384260887691</v>
+        <v>0.05054295539598419</v>
       </c>
       <c r="F8">
-        <v>2.29360375352428</v>
+        <v>3.623337128173162</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>1.162338113693799</v>
+        <v>2.05771863206455</v>
       </c>
       <c r="J8">
-        <v>0.04082455141022656</v>
+        <v>0.1114911210119161</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3643362531199443</v>
+        <v>0.4896321047580727</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.043342096715389</v>
+        <v>2.158984514163468</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.198241375368752</v>
+        <v>3.481976509065532</v>
       </c>
       <c r="C9">
-        <v>1.170927427450181</v>
+        <v>0.472326026168048</v>
       </c>
       <c r="D9">
-        <v>0.007512366229072143</v>
+        <v>0.01218093158036382</v>
       </c>
       <c r="E9">
-        <v>0.01710236156997152</v>
+        <v>0.05039461646826149</v>
       </c>
       <c r="F9">
-        <v>2.709157226763836</v>
+        <v>3.665808928162733</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>1.310014610703476</v>
+        <v>2.06040110864538</v>
       </c>
       <c r="J9">
-        <v>0.03844723014150198</v>
+        <v>0.1099902342023151</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4626982849513581</v>
+        <v>0.5073421517624865</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9015234580129388</v>
+        <v>2.104063065235664</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.196815485640116</v>
+        <v>3.704630519717625</v>
       </c>
       <c r="C10">
-        <v>1.413325145414774</v>
+        <v>0.5302095191993317</v>
       </c>
       <c r="D10">
-        <v>0.009668286516699709</v>
+        <v>0.0127861024474214</v>
       </c>
       <c r="E10">
-        <v>0.01728771174367405</v>
+        <v>0.05030470144833332</v>
       </c>
       <c r="F10">
-        <v>3.050659691088896</v>
+        <v>3.706630235277146</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>1.437094101330075</v>
+        <v>2.067598579541382</v>
       </c>
       <c r="J10">
-        <v>0.03687932204975475</v>
+        <v>0.1090040058790791</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5391095918274971</v>
+        <v>0.5215237486767563</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8073096773357733</v>
+        <v>2.067292283782372</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.663719171879507</v>
+        <v>3.807820368240073</v>
       </c>
       <c r="C11">
-        <v>1.526961911559624</v>
+        <v>0.5568069704131631</v>
       </c>
       <c r="D11">
-        <v>0.01074694331929749</v>
+        <v>0.01305814622214818</v>
       </c>
       <c r="E11">
-        <v>0.01738500885406791</v>
+        <v>0.05026792373429656</v>
       </c>
       <c r="F11">
-        <v>3.216012477520138</v>
+        <v>3.727310351989217</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>1.499971581061075</v>
+        <v>2.072018281737897</v>
       </c>
       <c r="J11">
-        <v>0.0362071599031708</v>
+        <v>0.1085805149330152</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5750424227272788</v>
+        <v>0.5282308357394214</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7669449732897746</v>
+        <v>2.051344766703167</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.842653578349655</v>
+        <v>3.847170789188965</v>
       </c>
       <c r="C12">
-        <v>1.570567031853216</v>
+        <v>0.5669177241858847</v>
       </c>
       <c r="D12">
-        <v>0.01117239739398102</v>
+        <v>0.01316073416475483</v>
       </c>
       <c r="E12">
-        <v>0.01742400487435303</v>
+        <v>0.050254589131697</v>
       </c>
       <c r="F12">
-        <v>3.280271639044628</v>
+        <v>3.735446427469299</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>1.524610121006816</v>
+        <v>2.07385745002675</v>
       </c>
       <c r="J12">
-        <v>0.03595876263225328</v>
+        <v>0.1084237577124636</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5888439757888904</v>
+        <v>0.5308075008476294</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7520507143811628</v>
+        <v>2.045418295348888</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.80401682765887</v>
+        <v>3.838683740471424</v>
       </c>
       <c r="C13">
-        <v>1.561148840489466</v>
+        <v>0.5647384532508113</v>
       </c>
       <c r="D13">
-        <v>0.01107996127638167</v>
+        <v>0.01313865848409712</v>
       </c>
       <c r="E13">
-        <v>0.01741550559904348</v>
+        <v>0.05025743464650101</v>
       </c>
       <c r="F13">
-        <v>3.26635560653034</v>
+        <v>3.733680590397796</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>1.519265208755328</v>
+        <v>2.073453977717776</v>
       </c>
       <c r="J13">
-        <v>0.03601198260339622</v>
+        <v>0.1084573577532311</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5858624611658314</v>
+        <v>0.5302509307158516</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7552405066421386</v>
+        <v>2.046689656927995</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.678395641462089</v>
+        <v>3.811052240728827</v>
       </c>
       <c r="C14">
-        <v>1.530537287027187</v>
+        <v>0.5576380054159245</v>
       </c>
       <c r="D14">
-        <v>0.01078158685389496</v>
+        <v>0.01306659457172188</v>
       </c>
       <c r="E14">
-        <v>0.01738817214266342</v>
+        <v>0.05026681482218764</v>
       </c>
       <c r="F14">
-        <v>3.221264900352509</v>
+        <v>3.727973591158616</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>1.501981392940891</v>
+        <v>2.072166269284267</v>
       </c>
       <c r="J14">
-        <v>0.03618659973238714</v>
+        <v>0.1085675461188771</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5761738246352053</v>
+        <v>0.5284420809515638</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7657115763343469</v>
+        <v>2.050854935273961</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.601736072421772</v>
+        <v>3.794162947888083</v>
       </c>
       <c r="C15">
-        <v>1.511864341418686</v>
+        <v>0.5532938578675726</v>
       </c>
       <c r="D15">
-        <v>0.01060113074240832</v>
+        <v>0.01302239860828891</v>
       </c>
       <c r="E15">
-        <v>0.01737171914938029</v>
+        <v>0.05027263756374278</v>
       </c>
       <c r="F15">
-        <v>3.193866161460107</v>
+        <v>3.724517649825543</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>1.491505590893127</v>
+        <v>2.071399090528473</v>
       </c>
       <c r="J15">
-        <v>0.03629436408157893</v>
+        <v>0.1086355095515064</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5702654211855247</v>
+        <v>0.5273389070943324</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.772177363226902</v>
+        <v>2.053420951952695</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.166582258621133</v>
+        <v>3.697925202751264</v>
       </c>
       <c r="C16">
-        <v>1.405973832054428</v>
+        <v>0.5284767187322927</v>
       </c>
       <c r="D16">
-        <v>0.00960000263014571</v>
+        <v>0.01276826159379851</v>
       </c>
       <c r="E16">
-        <v>0.01728163760989387</v>
+        <v>0.05030718789041122</v>
       </c>
       <c r="F16">
-        <v>3.040071701820608</v>
+        <v>3.705321333699061</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>1.433095096529385</v>
+        <v>2.067332860482892</v>
       </c>
       <c r="J16">
-        <v>0.03692409504367333</v>
+        <v>0.1090321874899294</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5367870371484997</v>
+        <v>0.521090576614867</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8100004544656869</v>
+        <v>2.068350213968827</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.903076417108934</v>
+        <v>3.639374640395829</v>
       </c>
       <c r="C17">
-        <v>1.341935822051028</v>
+        <v>0.513320772219231</v>
       </c>
       <c r="D17">
-        <v>0.009012853843918478</v>
+        <v>0.01261155118413093</v>
       </c>
       <c r="E17">
-        <v>0.01722988790577895</v>
+        <v>0.05032943929370781</v>
       </c>
       <c r="F17">
-        <v>2.948423249800101</v>
+        <v>3.694086576233929</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>1.398626951046623</v>
+        <v>2.065132321629775</v>
       </c>
       <c r="J17">
-        <v>0.03732109150467089</v>
+        <v>0.1092819729943315</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5165669419873495</v>
+        <v>0.5173229823735852</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8338640818155909</v>
+        <v>2.077708804767298</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.752684487884039</v>
+        <v>3.60587700475827</v>
       </c>
       <c r="C18">
-        <v>1.305413958197391</v>
+        <v>0.5046284676064374</v>
       </c>
       <c r="D18">
-        <v>0.008684159164436878</v>
+        <v>0.01252110713173415</v>
       </c>
       <c r="E18">
-        <v>0.01720132489299414</v>
+        <v>0.05034262603158646</v>
       </c>
       <c r="F18">
-        <v>2.896637093435203</v>
+        <v>3.68782318057967</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>1.379272175122182</v>
+        <v>2.063974404798159</v>
       </c>
       <c r="J18">
-        <v>0.03755328553345194</v>
+        <v>0.109428010579399</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5050455445775981</v>
+        <v>0.5151800362677221</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8478223410660135</v>
+        <v>2.083164983633665</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.701956477599538</v>
+        <v>3.594566012996438</v>
       </c>
       <c r="C19">
-        <v>1.293099199172104</v>
+        <v>0.5016896764702778</v>
       </c>
       <c r="D19">
-        <v>0.008574336150802608</v>
+        <v>0.01249043020332863</v>
       </c>
       <c r="E19">
-        <v>0.01719185249619615</v>
+        <v>0.05034715755602526</v>
       </c>
       <c r="F19">
-        <v>2.879256683107997</v>
+        <v>3.685736556365526</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>1.372796952540497</v>
+        <v>2.06360084044546</v>
       </c>
       <c r="J19">
-        <v>0.03763255755816086</v>
+        <v>0.1094778632382107</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5011625257671852</v>
+        <v>0.5144586048297271</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8525873879745234</v>
+        <v>2.085024940853714</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.931003895727997</v>
+        <v>3.645588904853298</v>
       </c>
       <c r="C20">
-        <v>1.348719973467553</v>
+        <v>0.5149315571762827</v>
       </c>
       <c r="D20">
-        <v>0.009074403882145532</v>
+        <v>0.01262826491254998</v>
       </c>
       <c r="E20">
-        <v>0.01723527043297041</v>
+        <v>0.05032703041080988</v>
       </c>
       <c r="F20">
-        <v>2.95808197786701</v>
+        <v>3.695261976429805</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>1.402246782199882</v>
+        <v>2.065355412732416</v>
       </c>
       <c r="J20">
-        <v>0.03727843030733702</v>
+        <v>0.1092551379165307</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5187079821407963</v>
+        <v>0.5177215572349496</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8312994709042272</v>
+        <v>2.076704971025272</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.715233199074646</v>
+        <v>3.819160819835645</v>
       </c>
       <c r="C21">
-        <v>1.539512311871647</v>
+        <v>0.559722518883234</v>
       </c>
       <c r="D21">
-        <v>0.01086874005182104</v>
+        <v>0.01308777282858031</v>
       </c>
       <c r="E21">
-        <v>0.01739613972006138</v>
+        <v>0.05026404356832992</v>
       </c>
       <c r="F21">
-        <v>3.234462750090358</v>
+        <v>3.729641586396212</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>1.50703473251383</v>
+        <v>2.072540001804128</v>
       </c>
       <c r="J21">
-        <v>0.03613514196672618</v>
+        <v>0.1085350832147149</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5790141078426387</v>
+        <v>0.5289723837990437</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7626250778638735</v>
+        <v>2.049628435505909</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.240351684340567</v>
+        <v>3.934201533063003</v>
       </c>
       <c r="C22">
-        <v>1.667598611746484</v>
+        <v>0.589222903301561</v>
       </c>
       <c r="D22">
-        <v>0.01214217604873014</v>
+        <v>0.01338560466940386</v>
       </c>
       <c r="E22">
-        <v>0.01751398981337138</v>
+        <v>0.05022633016888367</v>
       </c>
       <c r="F22">
-        <v>3.424790316569556</v>
+        <v>3.753888931911035</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>1.580403382769063</v>
+        <v>2.078200720091829</v>
       </c>
       <c r="J22">
-        <v>0.03542382871955319</v>
+        <v>0.1080855223222486</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6195763751628363</v>
+        <v>0.5365401895164297</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7200397202996243</v>
+        <v>2.032588318796094</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.958821575552292</v>
+        <v>3.872655280549907</v>
       </c>
       <c r="C23">
-        <v>1.598893417146655</v>
+        <v>0.5734570198055735</v>
       </c>
       <c r="D23">
-        <v>0.0114522152513068</v>
+        <v>0.0132268606033854</v>
       </c>
       <c r="E23">
-        <v>0.01744981983130134</v>
+        <v>0.05024614291512131</v>
       </c>
       <c r="F23">
-        <v>3.322246282242446</v>
+        <v>3.740784449413354</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>1.540761833185513</v>
+        <v>2.07509090801986</v>
       </c>
       <c r="J23">
-        <v>0.03580010309588388</v>
+        <v>0.1083235388163839</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5978129305458566</v>
+        <v>0.5324814421737045</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7425462108629475</v>
+        <v>2.041622798559317</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.918374475844132</v>
+        <v>3.642778925567882</v>
       </c>
       <c r="C24">
-        <v>1.345651948050033</v>
+        <v>0.5142032557756693</v>
       </c>
       <c r="D24">
-        <v>0.009046549711092311</v>
+        <v>0.01262070972596341</v>
       </c>
       <c r="E24">
-        <v>0.01723283331099229</v>
+        <v>0.05032811823916128</v>
       </c>
       <c r="F24">
-        <v>2.953712467069352</v>
+        <v>3.694729968814443</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>1.400608826654761</v>
+        <v>2.065254219393836</v>
       </c>
       <c r="J24">
-        <v>0.03729770513103858</v>
+        <v>0.1092672624773332</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5177396977174595</v>
+        <v>0.5175412896109037</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8324581902646386</v>
+        <v>2.077158568188288</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.839872671867454</v>
+        <v>3.40166285222341</v>
       </c>
       <c r="C25">
-        <v>1.084120079061961</v>
+        <v>0.451241366429997</v>
       </c>
       <c r="D25">
-        <v>0.00678822581371108</v>
+        <v>0.0119549342124099</v>
       </c>
       <c r="E25">
-        <v>0.01704396961513927</v>
+        <v>0.05043139226777416</v>
       </c>
       <c r="F25">
-        <v>2.591038191191004</v>
+        <v>3.652637135319651</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>1.267117597919423</v>
+        <v>2.058760982826868</v>
       </c>
       <c r="J25">
-        <v>0.03905969143419341</v>
+        <v>0.1103757688884182</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4354442730935375</v>
+        <v>0.5023460782418141</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9382371283349684</v>
+        <v>2.118293131375566</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_10/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.229934581839643</v>
+        <v>4.073614101340809</v>
       </c>
       <c r="C2">
-        <v>0.4056676705253324</v>
+        <v>0.8987589232752669</v>
       </c>
       <c r="D2">
-        <v>0.01145294848073064</v>
+        <v>0.005326703920447429</v>
       </c>
       <c r="E2">
-        <v>0.05052024881177442</v>
+        <v>0.01693532743861847</v>
       </c>
       <c r="F2">
-        <v>3.628100717984239</v>
+        <v>2.347516276311708</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="I2">
-        <v>2.057488557387394</v>
+        <v>1.180922714724055</v>
       </c>
       <c r="J2">
-        <v>0.1112702309759559</v>
+        <v>0.04047615877268207</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4919442578564315</v>
+        <v>0.3775343089642007</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.150983187293811</v>
+        <v>1.022697363716301</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.117137602727496</v>
+        <v>3.567536037832213</v>
       </c>
       <c r="C3">
-        <v>0.3752551547852363</v>
+        <v>0.776457577861521</v>
       </c>
       <c r="D3">
-        <v>0.01110465608546107</v>
+        <v>0.00442583364151794</v>
       </c>
       <c r="E3">
-        <v>0.05058848726883824</v>
+        <v>0.01687732588398733</v>
       </c>
       <c r="F3">
-        <v>3.615467914413358</v>
+        <v>2.194424572065188</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>2.058799223821048</v>
+        <v>1.128738086773303</v>
       </c>
       <c r="J3">
-        <v>0.1119254443326003</v>
+        <v>0.04150745805435374</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4853832162078078</v>
+        <v>0.3396151041106918</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.17463226720351</v>
+        <v>1.08362482014973</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.049638617032031</v>
+        <v>3.262132091957255</v>
       </c>
       <c r="C4">
-        <v>0.3568102768786048</v>
+        <v>0.7026647741237468</v>
       </c>
       <c r="D4">
-        <v>0.01088656952543943</v>
+        <v>0.003906809859941518</v>
       </c>
       <c r="E4">
-        <v>0.0506343506248248</v>
+        <v>0.0168485035860142</v>
       </c>
       <c r="F4">
-        <v>3.609672594614665</v>
+        <v>2.105532781300909</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>2.060670984191844</v>
+        <v>1.099390696552355</v>
       </c>
       <c r="J4">
-        <v>0.1123519967546915</v>
+        <v>0.04217500221444492</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4815950824088304</v>
+        <v>0.3168870142310709</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.189888701198651</v>
+        <v>1.12273430035011</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.022573837985931</v>
+        <v>3.138858295513444</v>
       </c>
       <c r="C5">
-        <v>0.3493507527682596</v>
+        <v>0.6728756305765273</v>
       </c>
       <c r="D5">
-        <v>0.01079659825546386</v>
+        <v>0.003702540600821536</v>
       </c>
       <c r="E5">
-        <v>0.05065403867706086</v>
+        <v>0.01683834631844411</v>
       </c>
       <c r="F5">
-        <v>3.607802938907923</v>
+        <v>2.070487095526119</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>2.061701419700398</v>
+        <v>1.088057705496958</v>
       </c>
       <c r="J5">
-        <v>0.1125319266524247</v>
+        <v>0.04245554121312356</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4801118100636188</v>
+        <v>0.3077511460602409</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.19629057731856</v>
+        <v>1.139082822024555</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.018106405460458</v>
+        <v>3.118455679510021</v>
       </c>
       <c r="C6">
-        <v>0.3481155259416084</v>
+        <v>0.6679449544342333</v>
       </c>
       <c r="D6">
-        <v>0.01078159119555977</v>
+        <v>0.003669022229740193</v>
       </c>
       <c r="E6">
-        <v>0.05065736820472655</v>
+        <v>0.0168367523871929</v>
       </c>
       <c r="F6">
-        <v>3.60752216412223</v>
+        <v>2.064736031899884</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>2.061888671596051</v>
+        <v>1.086212281647242</v>
       </c>
       <c r="J6">
-        <v>0.1125621729404136</v>
+        <v>0.04250263506985696</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4798691626971703</v>
+        <v>0.3062413817900733</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.197364754984271</v>
+        <v>1.141821859201848</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.049271824786217</v>
+        <v>3.260464998651287</v>
       </c>
       <c r="C7">
-        <v>0.3567094454075743</v>
+        <v>0.7022619421920524</v>
       </c>
       <c r="D7">
-        <v>0.01088536063736179</v>
+        <v>0.003904027387253706</v>
       </c>
       <c r="E7">
-        <v>0.05063461210027653</v>
+        <v>0.01684836031971393</v>
       </c>
       <c r="F7">
-        <v>3.609645389360224</v>
+        <v>2.105055504975169</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>2.060683798037161</v>
+        <v>1.099235384546333</v>
       </c>
       <c r="J7">
-        <v>0.1123543986162749</v>
+        <v>0.04217875136084803</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4815748338533581</v>
+        <v>0.3167633114181569</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.189974291445662</v>
+        <v>1.122953138302442</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.19067668873538</v>
+        <v>3.897911744177691</v>
       </c>
       <c r="C8">
-        <v>0.3951336593515578</v>
+        <v>0.8562910742631402</v>
       </c>
       <c r="D8">
-        <v>0.01133371497406799</v>
+        <v>0.005008153171607077</v>
       </c>
       <c r="E8">
-        <v>0.05054295539598419</v>
+        <v>0.01691384260886464</v>
       </c>
       <c r="F8">
-        <v>3.623337128173162</v>
+        <v>2.293603753524295</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>2.05771863206455</v>
+        <v>1.162338113693792</v>
       </c>
       <c r="J8">
-        <v>0.1114911210119161</v>
+        <v>0.04082455141023544</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4896321047580727</v>
+        <v>0.3643362531198449</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.158984514163468</v>
+        <v>1.043342096715445</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.481976509065532</v>
+        <v>5.198241375368866</v>
       </c>
       <c r="C9">
-        <v>0.472326026168048</v>
+        <v>1.170927427449897</v>
       </c>
       <c r="D9">
-        <v>0.01218093158036382</v>
+        <v>0.007512366229171619</v>
       </c>
       <c r="E9">
-        <v>0.05039461646826149</v>
+        <v>0.01710236156996542</v>
       </c>
       <c r="F9">
-        <v>3.665808928162733</v>
+        <v>2.709157226763864</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>2.06040110864538</v>
+        <v>1.310014610703476</v>
       </c>
       <c r="J9">
-        <v>0.1099902342023151</v>
+        <v>0.03844723014147178</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5073421517624865</v>
+        <v>0.4626982849512586</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.104063065235664</v>
+        <v>0.9015234580129174</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.704630519717625</v>
+        <v>6.196815485640286</v>
       </c>
       <c r="C10">
-        <v>0.5302095191993317</v>
+        <v>1.413325145415001</v>
       </c>
       <c r="D10">
-        <v>0.0127861024474214</v>
+        <v>0.009668286516685498</v>
       </c>
       <c r="E10">
-        <v>0.05030470144833332</v>
+        <v>0.0172877117436675</v>
       </c>
       <c r="F10">
-        <v>3.706630235277146</v>
+        <v>3.050659691088953</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>2.067598579541382</v>
+        <v>1.437094101330061</v>
       </c>
       <c r="J10">
-        <v>0.1090040058790791</v>
+        <v>0.03687932204972455</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5215237486767563</v>
+        <v>0.5391095918274686</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.067292283782372</v>
+        <v>0.8073096773357307</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.807820368240073</v>
+        <v>6.66371917187945</v>
       </c>
       <c r="C11">
-        <v>0.5568069704131631</v>
+        <v>1.526961911559852</v>
       </c>
       <c r="D11">
-        <v>0.01305814622214818</v>
+        <v>0.01074694331917669</v>
       </c>
       <c r="E11">
-        <v>0.05026792373429656</v>
+        <v>0.01738500885406657</v>
       </c>
       <c r="F11">
-        <v>3.727310351989217</v>
+        <v>3.21601247752011</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>2.072018281737897</v>
+        <v>1.499971581061104</v>
       </c>
       <c r="J11">
-        <v>0.1085805149330152</v>
+        <v>0.03620715990330403</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5282308357394214</v>
+        <v>0.5750424227273498</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.051344766703167</v>
+        <v>0.766944973289732</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.847170789188965</v>
+        <v>6.842653578349655</v>
       </c>
       <c r="C12">
-        <v>0.5669177241858847</v>
+        <v>1.570567031853159</v>
       </c>
       <c r="D12">
-        <v>0.01316073416475483</v>
+        <v>0.01117239739384956</v>
       </c>
       <c r="E12">
-        <v>0.050254589131697</v>
+        <v>0.01742400487435036</v>
       </c>
       <c r="F12">
-        <v>3.735446427469299</v>
+        <v>3.280271639044599</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
-        <v>2.07385745002675</v>
+        <v>1.52461012100683</v>
       </c>
       <c r="J12">
-        <v>0.1084237577124636</v>
+        <v>0.03595876263228526</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5308075008476294</v>
+        <v>0.5888439757888619</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.045418295348888</v>
+        <v>0.7520507143812054</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.838683740471424</v>
+        <v>6.804016827658984</v>
       </c>
       <c r="C13">
-        <v>0.5647384532508113</v>
+        <v>1.561148840489466</v>
       </c>
       <c r="D13">
-        <v>0.01313865848409712</v>
+        <v>0.01107996127649713</v>
       </c>
       <c r="E13">
-        <v>0.05025743464650101</v>
+        <v>0.01741550559903837</v>
       </c>
       <c r="F13">
-        <v>3.733680590397796</v>
+        <v>3.26635560653034</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>2.073453977717776</v>
+        <v>1.519265208755314</v>
       </c>
       <c r="J13">
-        <v>0.1084573577532311</v>
+        <v>0.03601198260342464</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5302509307158516</v>
+        <v>0.5858624611658172</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.046689656927995</v>
+        <v>0.7552405066421173</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.811052240728827</v>
+        <v>6.678395641462146</v>
       </c>
       <c r="C14">
-        <v>0.5576380054159245</v>
+        <v>1.530537287026846</v>
       </c>
       <c r="D14">
-        <v>0.01306659457172188</v>
+        <v>0.0107815868540122</v>
       </c>
       <c r="E14">
-        <v>0.05026681482218764</v>
+        <v>0.01738817214266097</v>
       </c>
       <c r="F14">
-        <v>3.727973591158616</v>
+        <v>3.221264900352566</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>2.072166269284267</v>
+        <v>1.501981392940877</v>
       </c>
       <c r="J14">
-        <v>0.1085675461188771</v>
+        <v>0.0361865997323676</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5284420809515638</v>
+        <v>0.5761738246353048</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.050854935273961</v>
+        <v>0.7657115763343327</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.794162947888083</v>
+        <v>6.601736072421772</v>
       </c>
       <c r="C15">
-        <v>0.5532938578675726</v>
+        <v>1.511864341418629</v>
       </c>
       <c r="D15">
-        <v>0.01302239860828891</v>
+        <v>0.01060113074242075</v>
       </c>
       <c r="E15">
-        <v>0.05027263756374278</v>
+        <v>0.0173717191493814</v>
       </c>
       <c r="F15">
-        <v>3.724517649825543</v>
+        <v>3.193866161460107</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>2.071399090528473</v>
+        <v>1.491505590893084</v>
       </c>
       <c r="J15">
-        <v>0.1086355095515064</v>
+        <v>0.03629436408152387</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5273389070943324</v>
+        <v>0.5702654211855247</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.053420951952695</v>
+        <v>0.7721773632268949</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.697925202751264</v>
+        <v>6.166582258621077</v>
       </c>
       <c r="C16">
-        <v>0.5284767187322927</v>
+        <v>1.405973832054144</v>
       </c>
       <c r="D16">
-        <v>0.01276826159379851</v>
+        <v>0.009600002630252291</v>
       </c>
       <c r="E16">
-        <v>0.05030718789041122</v>
+        <v>0.01728163760988954</v>
       </c>
       <c r="F16">
-        <v>3.705321333699061</v>
+        <v>3.04007170182058</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>2.067332860482892</v>
+        <v>1.433095096529357</v>
       </c>
       <c r="J16">
-        <v>0.1090321874899294</v>
+        <v>0.03692409504370886</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.521090576614867</v>
+        <v>0.5367870371485282</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.068350213968827</v>
+        <v>0.8100004544656798</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.639374640395829</v>
+        <v>5.903076417108764</v>
       </c>
       <c r="C17">
-        <v>0.513320772219231</v>
+        <v>1.341935822051255</v>
       </c>
       <c r="D17">
-        <v>0.01261155118413093</v>
+        <v>0.00901285384390782</v>
       </c>
       <c r="E17">
-        <v>0.05032943929370781</v>
+        <v>0.01722988790574181</v>
       </c>
       <c r="F17">
-        <v>3.694086576233929</v>
+        <v>2.948423249800101</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>2.065132321629775</v>
+        <v>1.398626951046609</v>
       </c>
       <c r="J17">
-        <v>0.1092819729943315</v>
+        <v>0.03732109150463536</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5173229823735852</v>
+        <v>0.5165669419874348</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.077708804767298</v>
+        <v>0.8338640818155554</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.60587700475827</v>
+        <v>5.752684487884153</v>
       </c>
       <c r="C18">
-        <v>0.5046284676064374</v>
+        <v>1.305413958197335</v>
       </c>
       <c r="D18">
-        <v>0.01252110713173415</v>
+        <v>0.008684159164296545</v>
       </c>
       <c r="E18">
-        <v>0.05034262603158646</v>
+        <v>0.01720132489298587</v>
       </c>
       <c r="F18">
-        <v>3.68782318057967</v>
+        <v>2.896637093435231</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>2.063974404798159</v>
+        <v>1.379272175122168</v>
       </c>
       <c r="J18">
-        <v>0.109428010579399</v>
+        <v>0.03755328553357806</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5151800362677221</v>
+        <v>0.5050455445775128</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.083164983633665</v>
+        <v>0.8478223410659993</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.594566012996438</v>
+        <v>5.701956477599538</v>
       </c>
       <c r="C19">
-        <v>0.5016896764702778</v>
+        <v>1.293099199172104</v>
       </c>
       <c r="D19">
-        <v>0.01249043020332863</v>
+        <v>0.008574336151029982</v>
       </c>
       <c r="E19">
-        <v>0.05034715755602526</v>
+        <v>0.01719185249622385</v>
       </c>
       <c r="F19">
-        <v>3.685736556365526</v>
+        <v>2.879256683107997</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>2.06360084044546</v>
+        <v>1.372796952540497</v>
       </c>
       <c r="J19">
-        <v>0.1094778632382107</v>
+        <v>0.03763255755821415</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5144586048297271</v>
+        <v>0.5011625257671852</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.085024940853714</v>
+        <v>0.8525873879745234</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.645588904853298</v>
+        <v>5.931003895728054</v>
       </c>
       <c r="C20">
-        <v>0.5149315571762827</v>
+        <v>1.348719973467496</v>
       </c>
       <c r="D20">
-        <v>0.01262826491254998</v>
+        <v>0.009074403882266324</v>
       </c>
       <c r="E20">
-        <v>0.05032703041080988</v>
+        <v>0.01723527043296769</v>
       </c>
       <c r="F20">
-        <v>3.695261976429805</v>
+        <v>2.95808197786701</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>2.065355412732416</v>
+        <v>1.402246782199882</v>
       </c>
       <c r="J20">
-        <v>0.1092551379165307</v>
+        <v>0.03727843030731925</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5177215572349496</v>
+        <v>0.5187079821407821</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.076704971025272</v>
+        <v>0.8312994709042059</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.819160819835645</v>
+        <v>6.715233199074476</v>
       </c>
       <c r="C21">
-        <v>0.559722518883234</v>
+        <v>1.53951231187159</v>
       </c>
       <c r="D21">
-        <v>0.01308777282858031</v>
+        <v>0.01086874005167715</v>
       </c>
       <c r="E21">
-        <v>0.05026404356832992</v>
+        <v>0.01739613972004916</v>
       </c>
       <c r="F21">
-        <v>3.729641586396212</v>
+        <v>3.234462750090358</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>2.072540001804128</v>
+        <v>1.507034732513816</v>
       </c>
       <c r="J21">
-        <v>0.1085350832147149</v>
+        <v>0.03613514196668532</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5289723837990437</v>
+        <v>0.5790141078426245</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.049628435505909</v>
+        <v>0.7626250778639161</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.934201533063003</v>
+        <v>7.240351684340567</v>
       </c>
       <c r="C22">
-        <v>0.589222903301561</v>
+        <v>1.667598611746314</v>
       </c>
       <c r="D22">
-        <v>0.01338560466940386</v>
+        <v>0.01214217604884382</v>
       </c>
       <c r="E22">
-        <v>0.05022633016888367</v>
+        <v>0.0175139898133303</v>
       </c>
       <c r="F22">
-        <v>3.753888931911035</v>
+        <v>3.424790316569556</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>2.078200720091829</v>
+        <v>1.580403382769063</v>
       </c>
       <c r="J22">
-        <v>0.1080855223222486</v>
+        <v>0.03542382871957983</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5365401895164297</v>
+        <v>0.619576375162822</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.032588318796094</v>
+        <v>0.7200397202996598</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.872655280549907</v>
+        <v>6.958821575552236</v>
       </c>
       <c r="C23">
-        <v>0.5734570198055735</v>
+        <v>1.598893417146712</v>
       </c>
       <c r="D23">
-        <v>0.0132268606033854</v>
+        <v>0.01145221525143114</v>
       </c>
       <c r="E23">
-        <v>0.05024614291512131</v>
+        <v>0.01744981983129301</v>
       </c>
       <c r="F23">
-        <v>3.740784449413354</v>
+        <v>3.322246282242418</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>2.07509090801986</v>
+        <v>1.540761833185485</v>
       </c>
       <c r="J23">
-        <v>0.1083235388163839</v>
+        <v>0.03580010309582526</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5324814421737045</v>
+        <v>0.5978129305458992</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.041622798559317</v>
+        <v>0.7425462108629404</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.642778925567882</v>
+        <v>5.918374475843962</v>
       </c>
       <c r="C24">
-        <v>0.5142032557756693</v>
+        <v>1.345651948050374</v>
       </c>
       <c r="D24">
-        <v>0.01262070972596341</v>
+        <v>0.009046549711062113</v>
       </c>
       <c r="E24">
-        <v>0.05032811823916128</v>
+        <v>0.01723283331107367</v>
       </c>
       <c r="F24">
-        <v>3.694729968814443</v>
+        <v>2.953712467069352</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>2.065254219393836</v>
+        <v>1.400608826654775</v>
       </c>
       <c r="J24">
-        <v>0.1092672624773332</v>
+        <v>0.03729770513112385</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5175412896109037</v>
+        <v>0.5177396977174169</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.077158568188288</v>
+        <v>0.8324581902646173</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.40166285222341</v>
+        <v>4.83987267186734</v>
       </c>
       <c r="C25">
-        <v>0.451241366429997</v>
+        <v>1.084120079061961</v>
       </c>
       <c r="D25">
-        <v>0.0119549342124099</v>
+        <v>0.006788225813812332</v>
       </c>
       <c r="E25">
-        <v>0.05043139226777416</v>
+        <v>0.0170439696151935</v>
       </c>
       <c r="F25">
-        <v>3.652637135319651</v>
+        <v>2.591038191191032</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>2.058760982826868</v>
+        <v>1.267117597919423</v>
       </c>
       <c r="J25">
-        <v>0.1103757688884182</v>
+        <v>0.03905969143428756</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5023460782418141</v>
+        <v>0.4354442730935233</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.118293131375566</v>
+        <v>0.9382371283350324</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_10/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.073614101340809</v>
+        <v>1.882892155140894</v>
       </c>
       <c r="C2">
-        <v>0.8987589232752669</v>
+        <v>0.5329817801419381</v>
       </c>
       <c r="D2">
-        <v>0.005326703920447429</v>
+        <v>0.1297506322905804</v>
       </c>
       <c r="E2">
-        <v>0.01693532743861847</v>
+        <v>0.1028434713326511</v>
       </c>
       <c r="F2">
-        <v>2.347516276311708</v>
+        <v>0.8043018966977371</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
+        <v>4.535943238015427E-05</v>
+      </c>
+      <c r="I2">
+        <v>0.0008875046576450885</v>
+      </c>
+      <c r="J2">
         <v>0.02672462365074526</v>
       </c>
-      <c r="I2">
-        <v>1.180922714724055</v>
-      </c>
-      <c r="J2">
-        <v>0.04047615877268207</v>
-      </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2937133225585065</v>
       </c>
       <c r="L2">
-        <v>0.3775343089642007</v>
+        <v>0.1129491193438881</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.022697363716301</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.592061776077891</v>
+      </c>
+      <c r="P2">
+        <v>0.8199880120648757</v>
+      </c>
+      <c r="Q2">
+        <v>1.857442887576241</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.567536037832213</v>
+        <v>1.639749881386564</v>
       </c>
       <c r="C3">
-        <v>0.776457577861521</v>
+        <v>0.4660193932622008</v>
       </c>
       <c r="D3">
-        <v>0.00442583364151794</v>
+        <v>0.1183250342514057</v>
       </c>
       <c r="E3">
-        <v>0.01687732588398733</v>
+        <v>0.09508572801454918</v>
       </c>
       <c r="F3">
-        <v>2.194424572065188</v>
+        <v>0.7567710372742056</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0.0004284873574973425</v>
+      </c>
+      <c r="I3">
+        <v>0.0004918517370966491</v>
+      </c>
+      <c r="J3">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I3">
-        <v>1.128738086773303</v>
-      </c>
-      <c r="J3">
-        <v>0.04150745805435374</v>
-      </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2916504583479345</v>
       </c>
       <c r="L3">
-        <v>0.3396151041106918</v>
+        <v>0.1052611060950817</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.08362482014973</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.517489777100181</v>
+      </c>
+      <c r="P3">
+        <v>0.8325248128365885</v>
+      </c>
+      <c r="Q3">
+        <v>1.758309759233924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.262132091957255</v>
+        <v>1.489833955870523</v>
       </c>
       <c r="C4">
-        <v>0.7026647741237468</v>
+        <v>0.4251466083099444</v>
       </c>
       <c r="D4">
-        <v>0.003906809859941518</v>
+        <v>0.1113506747148705</v>
       </c>
       <c r="E4">
-        <v>0.0168485035860142</v>
+        <v>0.09031469200796138</v>
       </c>
       <c r="F4">
-        <v>2.105532781300909</v>
+        <v>0.728109239337968</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0.0008757087066388891</v>
+      </c>
+      <c r="I4">
+        <v>0.0004260259410995282</v>
+      </c>
+      <c r="J4">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I4">
-        <v>1.099390696552355</v>
-      </c>
-      <c r="J4">
-        <v>0.04217500221444492</v>
-      </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2906219823680587</v>
       </c>
       <c r="L4">
-        <v>0.3168870142310709</v>
+        <v>0.1005014217903302</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.12273430035011</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.4716939504353448</v>
+      </c>
+      <c r="P4">
+        <v>0.8408991813043585</v>
+      </c>
+      <c r="Q4">
+        <v>1.698918124653602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.138858295513444</v>
+        <v>1.427569654595771</v>
       </c>
       <c r="C5">
-        <v>0.6728756305765273</v>
+        <v>0.4092024652247233</v>
       </c>
       <c r="D5">
-        <v>0.003702540600821536</v>
+        <v>0.1085866917624969</v>
       </c>
       <c r="E5">
-        <v>0.01683834631844411</v>
+        <v>0.08837803806409639</v>
       </c>
       <c r="F5">
-        <v>2.070487095526119</v>
+        <v>0.7160464439935623</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0.001109660309807858</v>
+      </c>
+      <c r="I5">
+        <v>0.000506498900949115</v>
+      </c>
+      <c r="J5">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I5">
-        <v>1.088057705496958</v>
-      </c>
-      <c r="J5">
-        <v>0.04245554121312356</v>
-      </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2899408644737562</v>
       </c>
       <c r="L5">
-        <v>0.3077511460602409</v>
+        <v>0.09853306482162694</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.139082822024555</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.45304396518641</v>
+      </c>
+      <c r="P5">
+        <v>0.8447300670638427</v>
+      </c>
+      <c r="Q5">
+        <v>1.673520765427128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.118455679510021</v>
+        <v>1.415983085536425</v>
       </c>
       <c r="C6">
-        <v>0.6679449544342333</v>
+        <v>0.4073639910409099</v>
       </c>
       <c r="D6">
-        <v>0.003669022229740193</v>
+        <v>0.1082125209742344</v>
       </c>
       <c r="E6">
-        <v>0.0168367523871929</v>
+        <v>0.08806893581450126</v>
       </c>
       <c r="F6">
-        <v>2.064736031899884</v>
+        <v>0.7134313719299072</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0.001152714818363321</v>
+      </c>
+      <c r="I6">
+        <v>0.0006093906893651635</v>
+      </c>
+      <c r="J6">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I6">
-        <v>1.086212281647242</v>
-      </c>
-      <c r="J6">
-        <v>0.04250263506985696</v>
-      </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2894411392877991</v>
       </c>
       <c r="L6">
-        <v>0.3062413817900733</v>
+        <v>0.09818360404659288</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.141821859201848</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.449968153807454</v>
+      </c>
+      <c r="P6">
+        <v>0.8456875054136788</v>
+      </c>
+      <c r="Q6">
+        <v>1.667435888416207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.260464998651287</v>
+        <v>1.485602250546123</v>
       </c>
       <c r="C7">
-        <v>0.7022619421920524</v>
+        <v>0.427137284743111</v>
       </c>
       <c r="D7">
-        <v>0.003904027387253706</v>
+        <v>0.1115437909091099</v>
       </c>
       <c r="E7">
-        <v>0.01684836031971393</v>
+        <v>0.09032341372326158</v>
       </c>
       <c r="F7">
-        <v>2.105055504975169</v>
+        <v>0.7262540075424013</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0.0008814644920602799</v>
+      </c>
+      <c r="I7">
+        <v>0.0006492855645348072</v>
+      </c>
+      <c r="J7">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I7">
-        <v>1.099235384546333</v>
-      </c>
-      <c r="J7">
-        <v>0.04217875136084803</v>
-      </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2895476437162969</v>
       </c>
       <c r="L7">
-        <v>0.3167633114181569</v>
+        <v>0.1004152243335099</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.122953138302442</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.4715007257461181</v>
+      </c>
+      <c r="P7">
+        <v>0.8418150833383748</v>
+      </c>
+      <c r="Q7">
+        <v>1.693414614751902</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.897911744177691</v>
+        <v>1.794646588594958</v>
       </c>
       <c r="C8">
-        <v>0.8562910742631402</v>
+        <v>0.5127824747813747</v>
       </c>
       <c r="D8">
-        <v>0.005008153171607077</v>
+        <v>0.1261087259459828</v>
       </c>
       <c r="E8">
-        <v>0.01691384260886464</v>
+        <v>0.1002168689374585</v>
       </c>
       <c r="F8">
-        <v>2.293603753524295</v>
+        <v>0.7855589849786782</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0.0001332609108690708</v>
+      </c>
+      <c r="I8">
+        <v>0.000977363553878341</v>
+      </c>
+      <c r="J8">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I8">
-        <v>1.162338113693792</v>
-      </c>
-      <c r="J8">
-        <v>0.04082455141023544</v>
-      </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2915459007997221</v>
       </c>
       <c r="L8">
-        <v>0.3643362531198449</v>
+        <v>0.1102277666034475</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.043342096715445</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.5664251039060204</v>
+      </c>
+      <c r="P8">
+        <v>0.8253756607057596</v>
+      </c>
+      <c r="Q8">
+        <v>1.816107758117965</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.198241375368866</v>
+        <v>2.402089917645412</v>
       </c>
       <c r="C9">
-        <v>1.170927427449897</v>
+        <v>0.6789813695758369</v>
       </c>
       <c r="D9">
-        <v>0.007512366229171619</v>
+        <v>0.1546258626035524</v>
       </c>
       <c r="E9">
-        <v>0.01710236156996542</v>
+        <v>0.1195301715527499</v>
       </c>
       <c r="F9">
-        <v>2.709157226763864</v>
+        <v>0.909415433105039</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0.0004685797989329998</v>
+      </c>
+      <c r="I9">
+        <v>0.002808789845003545</v>
+      </c>
+      <c r="J9">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I9">
-        <v>1.310014610703476</v>
-      </c>
-      <c r="J9">
-        <v>0.03844723014147178</v>
-      </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2993768835777395</v>
       </c>
       <c r="L9">
-        <v>0.4626982849512586</v>
+        <v>0.129308834094914</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.9015234580129174</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.7525657090616491</v>
+      </c>
+      <c r="P9">
+        <v>0.7970802023774439</v>
+      </c>
+      <c r="Q9">
+        <v>2.078733851586094</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.196815485640286</v>
+        <v>2.838508132808556</v>
       </c>
       <c r="C10">
-        <v>1.413325145415001</v>
+        <v>0.8000410827959001</v>
       </c>
       <c r="D10">
-        <v>0.009668286516685498</v>
+        <v>0.1718745129710442</v>
       </c>
       <c r="E10">
-        <v>0.0172877117436675</v>
+        <v>0.1286555870874651</v>
       </c>
       <c r="F10">
-        <v>3.050659691088953</v>
+        <v>0.9895040880124384</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.002055664358931342</v>
+      </c>
+      <c r="I10">
+        <v>0.00530647986402677</v>
+      </c>
+      <c r="J10">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I10">
-        <v>1.437094101330061</v>
-      </c>
-      <c r="J10">
-        <v>0.03687932204972455</v>
-      </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.302783185783241</v>
       </c>
       <c r="L10">
-        <v>0.5391095918274686</v>
+        <v>0.1368727828750735</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8073096773357307</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.8758106677604474</v>
+      </c>
+      <c r="P10">
+        <v>0.7849156859379391</v>
+      </c>
+      <c r="Q10">
+        <v>2.252429784383565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.66371917187945</v>
+        <v>2.981353157718956</v>
       </c>
       <c r="C11">
-        <v>1.526961911559852</v>
+        <v>0.8241998251999973</v>
       </c>
       <c r="D11">
-        <v>0.01074694331917669</v>
+        <v>0.1461210115628262</v>
       </c>
       <c r="E11">
-        <v>0.01738500885406657</v>
+        <v>0.0941633874966854</v>
       </c>
       <c r="F11">
-        <v>3.21601247752011</v>
+        <v>0.9097781834821177</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0.02057935144378931</v>
+      </c>
+      <c r="I11">
+        <v>0.006597505592153219</v>
+      </c>
+      <c r="J11">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I11">
-        <v>1.499971581061104</v>
-      </c>
-      <c r="J11">
-        <v>0.03620715990330403</v>
-      </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.27569200736216</v>
       </c>
       <c r="L11">
-        <v>0.5750424227273498</v>
+        <v>0.09692508027198343</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.766944973289732</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.8137223039126198</v>
+      </c>
+      <c r="P11">
+        <v>0.8242572827777437</v>
+      </c>
+      <c r="Q11">
+        <v>2.102104421456801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.842653578349655</v>
+        <v>3.014386660656555</v>
       </c>
       <c r="C12">
-        <v>1.570567031853159</v>
+        <v>0.8148858933781185</v>
       </c>
       <c r="D12">
-        <v>0.01117239739384956</v>
+        <v>0.1226237244811088</v>
       </c>
       <c r="E12">
-        <v>0.01742400487435036</v>
+        <v>0.07087481414296271</v>
       </c>
       <c r="F12">
-        <v>3.280271639044599</v>
+        <v>0.8302514769087566</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0.0590333245091017</v>
+      </c>
+      <c r="I12">
+        <v>0.006745974153796297</v>
+      </c>
+      <c r="J12">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I12">
-        <v>1.52461012100683</v>
-      </c>
-      <c r="J12">
-        <v>0.03595876263228526</v>
-      </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.25440557848151</v>
       </c>
       <c r="L12">
-        <v>0.5888439757888619</v>
+        <v>0.07745006271660504</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7520507143812054</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.7376403365935147</v>
+      </c>
+      <c r="P12">
+        <v>0.863207830097636</v>
+      </c>
+      <c r="Q12">
+        <v>1.948637381628032</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.804016827658984</v>
+        <v>2.959123214771409</v>
       </c>
       <c r="C13">
-        <v>1.561148840489466</v>
+        <v>0.7828461580962198</v>
       </c>
       <c r="D13">
-        <v>0.01107996127649713</v>
+        <v>0.09997158792871375</v>
       </c>
       <c r="E13">
-        <v>0.01741550559903837</v>
+        <v>0.05490204573971624</v>
       </c>
       <c r="F13">
-        <v>3.26635560653034</v>
+        <v>0.7437876061772428</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.1144039122939802</v>
+      </c>
+      <c r="I13">
+        <v>0.006315100798444107</v>
+      </c>
+      <c r="J13">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I13">
-        <v>1.519265208755314</v>
-      </c>
-      <c r="J13">
-        <v>0.03601198260342464</v>
-      </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.234626633587105</v>
       </c>
       <c r="L13">
-        <v>0.5858624611658172</v>
+        <v>0.0722901199521484</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7552405066421173</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.6470624035437282</v>
+      </c>
+      <c r="P13">
+        <v>0.9045663239055699</v>
+      </c>
+      <c r="Q13">
+        <v>1.775764260319306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.678395641462146</v>
+        <v>2.879564093146143</v>
       </c>
       <c r="C14">
-        <v>1.530537287026846</v>
+        <v>0.7509614730944065</v>
       </c>
       <c r="D14">
-        <v>0.0107815868540122</v>
+        <v>0.0849848338549748</v>
       </c>
       <c r="E14">
-        <v>0.01738817214266097</v>
+        <v>0.0481160427510674</v>
       </c>
       <c r="F14">
-        <v>3.221264900352566</v>
+        <v>0.6805668382158316</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0.1634442654388977</v>
+      </c>
+      <c r="I14">
+        <v>0.005845268234673462</v>
+      </c>
+      <c r="J14">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I14">
-        <v>1.501981392940877</v>
-      </c>
-      <c r="J14">
-        <v>0.0361865997323676</v>
-      </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2214149933827052</v>
       </c>
       <c r="L14">
-        <v>0.5761738246353048</v>
+        <v>0.07714383748855624</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7657115763343327</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.5781036996313418</v>
+      </c>
+      <c r="P14">
+        <v>0.9351809038851258</v>
+      </c>
+      <c r="Q14">
+        <v>1.646115083788914</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.601736072421772</v>
+        <v>2.840157957283225</v>
       </c>
       <c r="C15">
-        <v>1.511864341418629</v>
+        <v>0.739334786412968</v>
       </c>
       <c r="D15">
-        <v>0.01060113074242075</v>
+        <v>0.08131137939941624</v>
       </c>
       <c r="E15">
-        <v>0.0173717191493814</v>
+        <v>0.04701112134762453</v>
       </c>
       <c r="F15">
-        <v>3.193866161460107</v>
+        <v>0.6630265947677501</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.1758253772413383</v>
+      </c>
+      <c r="I15">
+        <v>0.005716593205884024</v>
+      </c>
+      <c r="J15">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I15">
-        <v>1.491505590893084</v>
-      </c>
-      <c r="J15">
-        <v>0.03629436408152387</v>
-      </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2181402726468242</v>
       </c>
       <c r="L15">
-        <v>0.5702654211855247</v>
+        <v>0.07928712238029689</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7721773632268949</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.5580944857605274</v>
+      </c>
+      <c r="P15">
+        <v>0.942990715957535</v>
+      </c>
+      <c r="Q15">
+        <v>1.60869702440948</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.166582258621077</v>
+        <v>2.662412483463299</v>
       </c>
       <c r="C16">
-        <v>1.405973832054144</v>
+        <v>0.69568233496841</v>
       </c>
       <c r="D16">
-        <v>0.009600002630252291</v>
+        <v>0.07918798556451634</v>
       </c>
       <c r="E16">
-        <v>0.01728163760988954</v>
+        <v>0.04674162037508167</v>
       </c>
       <c r="F16">
-        <v>3.04007170182058</v>
+        <v>0.6464940413399916</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.1624964077967235</v>
+      </c>
+      <c r="I16">
+        <v>0.004782847158838699</v>
+      </c>
+      <c r="J16">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I16">
-        <v>1.433095096529357</v>
-      </c>
-      <c r="J16">
-        <v>0.03692409504370886</v>
-      </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2200553295218377</v>
       </c>
       <c r="L16">
-        <v>0.5367870371485282</v>
+        <v>0.07711665059645512</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8100004544656798</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.5261916357646967</v>
+      </c>
+      <c r="P16">
+        <v>0.9372982471246303</v>
+      </c>
+      <c r="Q16">
+        <v>1.567760664901726</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.903076417108764</v>
+        <v>2.568333908947523</v>
       </c>
       <c r="C17">
-        <v>1.341935822051255</v>
+        <v>0.6792234080837432</v>
       </c>
       <c r="D17">
-        <v>0.00901285384390782</v>
+        <v>0.08523583117612077</v>
       </c>
       <c r="E17">
-        <v>0.01722988790574181</v>
+        <v>0.04939119835341899</v>
       </c>
       <c r="F17">
-        <v>2.948423249800101</v>
+        <v>0.6669503585391965</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.1244362603759157</v>
+      </c>
+      <c r="I17">
+        <v>0.004355053564617961</v>
+      </c>
+      <c r="J17">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I17">
-        <v>1.398626951046609</v>
-      </c>
-      <c r="J17">
-        <v>0.03732109150463536</v>
-      </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2284604410880071</v>
       </c>
       <c r="L17">
-        <v>0.5165669419874348</v>
+        <v>0.07149102153406695</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8338640818155554</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.5376627311528352</v>
+      </c>
+      <c r="P17">
+        <v>0.9169560557137686</v>
+      </c>
+      <c r="Q17">
+        <v>1.604655455662083</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.752684487884153</v>
+        <v>2.537976264440942</v>
       </c>
       <c r="C18">
-        <v>1.305413958197335</v>
+        <v>0.682260189074924</v>
       </c>
       <c r="D18">
-        <v>0.008684159164296545</v>
+        <v>0.1000707773447402</v>
       </c>
       <c r="E18">
-        <v>0.01720132489298587</v>
+        <v>0.05870139070064795</v>
       </c>
       <c r="F18">
-        <v>2.896637093435231</v>
+        <v>0.7240696131469448</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0.07157610736749831</v>
+      </c>
+      <c r="I18">
+        <v>0.004005790605837944</v>
+      </c>
+      <c r="J18">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I18">
-        <v>1.379272175122168</v>
-      </c>
-      <c r="J18">
-        <v>0.03755328553357806</v>
-      </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.244493967690957</v>
       </c>
       <c r="L18">
-        <v>0.5050455445775128</v>
+        <v>0.06988375346601644</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8478223410659993</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.5893513162841799</v>
+      </c>
+      <c r="P18">
+        <v>0.882445775786465</v>
+      </c>
+      <c r="Q18">
+        <v>1.717969384353665</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.701956477599538</v>
+        <v>2.55418300315074</v>
       </c>
       <c r="C19">
-        <v>1.293099199172104</v>
+        <v>0.7049655987531764</v>
       </c>
       <c r="D19">
-        <v>0.008574336151029982</v>
+        <v>0.123134590640916</v>
       </c>
       <c r="E19">
-        <v>0.01719185249622385</v>
+        <v>0.07850820771559341</v>
       </c>
       <c r="F19">
-        <v>2.879256683107997</v>
+        <v>0.806509232541913</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.0265603490626134</v>
+      </c>
+      <c r="I19">
+        <v>0.004238384245094373</v>
+      </c>
+      <c r="J19">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I19">
-        <v>1.372796952540497</v>
-      </c>
-      <c r="J19">
-        <v>0.03763255755821415</v>
-      </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2646255297559286</v>
       </c>
       <c r="L19">
-        <v>0.5011625257671852</v>
+        <v>0.08290711742778356</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8525873879745234</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.6727688651363124</v>
+      </c>
+      <c r="P19">
+        <v>0.8445099688424236</v>
+      </c>
+      <c r="Q19">
+        <v>1.879951139370291</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.931003895728054</v>
+        <v>2.71293464081657</v>
       </c>
       <c r="C20">
-        <v>1.348719973467496</v>
+        <v>0.7750319828286365</v>
       </c>
       <c r="D20">
-        <v>0.009074403882266324</v>
+        <v>0.1678819515658461</v>
       </c>
       <c r="E20">
-        <v>0.01723527043296769</v>
+        <v>0.1261517668367382</v>
       </c>
       <c r="F20">
-        <v>2.95808197786701</v>
+        <v>0.962418198148157</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0.001520973475166443</v>
+      </c>
+      <c r="I20">
+        <v>0.00525866591429125</v>
+      </c>
+      <c r="J20">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I20">
-        <v>1.402246782199882</v>
-      </c>
-      <c r="J20">
-        <v>0.03727843030731925</v>
-      </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.2983907106264851</v>
       </c>
       <c r="L20">
-        <v>0.5187079821407821</v>
+        <v>0.1344395855989333</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8312994709042059</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.8430387981801815</v>
+      </c>
+      <c r="P20">
+        <v>0.7912115821525205</v>
+      </c>
+      <c r="Q20">
+        <v>2.189005213494369</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.715233199074476</v>
+        <v>3.058049400393315</v>
       </c>
       <c r="C21">
-        <v>1.53951231187159</v>
+        <v>0.8733349303318505</v>
       </c>
       <c r="D21">
-        <v>0.01086874005167715</v>
+        <v>0.1874375211507839</v>
       </c>
       <c r="E21">
-        <v>0.01739613972004916</v>
+        <v>0.14108938075195</v>
       </c>
       <c r="F21">
-        <v>3.234462750090358</v>
+        <v>1.04691660650434</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0.003105352557875918</v>
+      </c>
+      <c r="I21">
+        <v>0.007495236685268303</v>
+      </c>
+      <c r="J21">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I21">
-        <v>1.507034732513816</v>
-      </c>
-      <c r="J21">
-        <v>0.03613514196668532</v>
-      </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.3072122860479922</v>
       </c>
       <c r="L21">
-        <v>0.5790141078426245</v>
+        <v>0.150066694387732</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7626250778639161</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.9591235979909527</v>
+      </c>
+      <c r="P21">
+        <v>0.7758281938952791</v>
+      </c>
+      <c r="Q21">
+        <v>2.369426621403903</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.240351684340567</v>
+        <v>3.2849965049042</v>
       </c>
       <c r="C22">
-        <v>1.667598611746314</v>
+        <v>0.9330764264172728</v>
       </c>
       <c r="D22">
-        <v>0.01214217604884382</v>
+        <v>0.1978908321316482</v>
       </c>
       <c r="E22">
-        <v>0.0175139898133303</v>
+        <v>0.1482158869889787</v>
       </c>
       <c r="F22">
-        <v>3.424790316569556</v>
+        <v>1.098331398122554</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0.00445901493415557</v>
+      </c>
+      <c r="I22">
+        <v>0.008911950214307574</v>
+      </c>
+      <c r="J22">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I22">
-        <v>1.580403382769063</v>
-      </c>
-      <c r="J22">
-        <v>0.03542382871957983</v>
-      </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.3130112148902846</v>
       </c>
       <c r="L22">
-        <v>0.619576375162822</v>
+        <v>0.1571307394679877</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7200397202996598</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.028026059472424</v>
+      </c>
+      <c r="P22">
+        <v>0.7674197209828364</v>
+      </c>
+      <c r="Q22">
+        <v>2.483036767227816</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.958821575552236</v>
+        <v>3.168053081556707</v>
       </c>
       <c r="C23">
-        <v>1.598893417146712</v>
+        <v>0.8984517955361753</v>
       </c>
       <c r="D23">
-        <v>0.01145221525143114</v>
+        <v>0.1920256986209949</v>
       </c>
       <c r="E23">
-        <v>0.01744981983129301</v>
+        <v>0.1443650215242336</v>
       </c>
       <c r="F23">
-        <v>3.322246282242418</v>
+        <v>1.072813316618806</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0.003714170910477321</v>
+      </c>
+      <c r="I23">
+        <v>0.007869438808324247</v>
+      </c>
+      <c r="J23">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I23">
-        <v>1.540761833185485</v>
-      </c>
-      <c r="J23">
-        <v>0.03580010309582526</v>
-      </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.3111209100950596</v>
       </c>
       <c r="L23">
-        <v>0.5978129305458992</v>
+        <v>0.1534276541993478</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7425462108629404</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.9911735492926681</v>
+      </c>
+      <c r="P23">
+        <v>0.7705931666004986</v>
+      </c>
+      <c r="Q23">
+        <v>2.428277897960413</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.918374475843962</v>
+        <v>2.718071484862264</v>
       </c>
       <c r="C24">
-        <v>1.345651948050374</v>
+        <v>0.7724746910539864</v>
       </c>
       <c r="D24">
-        <v>0.009046549711062113</v>
+        <v>0.170396780600953</v>
       </c>
       <c r="E24">
-        <v>0.01723283331107367</v>
+        <v>0.1299031465750353</v>
       </c>
       <c r="F24">
-        <v>2.953712467069352</v>
+        <v>0.9746911550361688</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0.001467997636487084</v>
+      </c>
+      <c r="I24">
+        <v>0.004828545926773842</v>
+      </c>
+      <c r="J24">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I24">
-        <v>1.400608826654775</v>
-      </c>
-      <c r="J24">
-        <v>0.03729770513112385</v>
-      </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.3026983766381477</v>
       </c>
       <c r="L24">
-        <v>0.5177396977174169</v>
+        <v>0.1393073202613735</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8324581902646173</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.8519856313364542</v>
+      </c>
+      <c r="P24">
+        <v>0.7861560007443202</v>
+      </c>
+      <c r="Q24">
+        <v>2.216000842521908</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.83987267186734</v>
+        <v>2.231957157645581</v>
       </c>
       <c r="C25">
-        <v>1.084120079061961</v>
+        <v>0.6378034711476062</v>
       </c>
       <c r="D25">
-        <v>0.006788225813812332</v>
+        <v>0.1472875026718725</v>
       </c>
       <c r="E25">
-        <v>0.0170439696151935</v>
+        <v>0.1143685331482409</v>
       </c>
       <c r="F25">
-        <v>2.591038191191032</v>
+        <v>0.87230396052</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0.0001651152823014534</v>
+      </c>
+      <c r="I25">
+        <v>0.00251177159239635</v>
+      </c>
+      <c r="J25">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I25">
-        <v>1.267117597919423</v>
-      </c>
-      <c r="J25">
-        <v>0.03905969143428756</v>
-      </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2951165343002593</v>
       </c>
       <c r="L25">
-        <v>0.4354442730935233</v>
+        <v>0.1240634955566833</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.9382371283350324</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.7022759509531227</v>
+      </c>
+      <c r="P25">
+        <v>0.8058632727953139</v>
+      </c>
+      <c r="Q25">
+        <v>1.996822528216228</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_10/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.882892155140894</v>
+        <v>1.823900975088463</v>
       </c>
       <c r="C2">
-        <v>0.5329817801419381</v>
+        <v>0.5712654282697542</v>
       </c>
       <c r="D2">
-        <v>0.1297506322905804</v>
+        <v>0.1357762962799285</v>
       </c>
       <c r="E2">
-        <v>0.1028434713326511</v>
+        <v>0.104831570076545</v>
       </c>
       <c r="F2">
-        <v>0.8043018966977371</v>
+        <v>0.7668861487609746</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.535943238015427E-05</v>
+        <v>2.148350566422152E-05</v>
       </c>
       <c r="I2">
-        <v>0.0008875046576450885</v>
+        <v>0.001239118989293075</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>0.2937133225585065</v>
+        <v>0.2661533621325916</v>
       </c>
       <c r="L2">
-        <v>0.1129491193438881</v>
+        <v>0.149226739062712</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.0621876060419293</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1131470314365544</v>
       </c>
       <c r="O2">
-        <v>0.592061776077891</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8199880120648757</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.857442887576241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.5937979144595431</v>
+      </c>
+      <c r="R2">
+        <v>0.8258565820375665</v>
+      </c>
+      <c r="S2">
+        <v>1.740955243678769</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.639749881386564</v>
+        <v>1.594104836929631</v>
       </c>
       <c r="C3">
-        <v>0.4660193932622008</v>
+        <v>0.4950072055765986</v>
       </c>
       <c r="D3">
-        <v>0.1183250342514057</v>
+        <v>0.1236451610861167</v>
       </c>
       <c r="E3">
-        <v>0.09508572801454918</v>
+        <v>0.09707583695213273</v>
       </c>
       <c r="F3">
-        <v>0.7567710372742056</v>
+        <v>0.7245676715385727</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0004284873574973425</v>
+        <v>0.0003275942828848688</v>
       </c>
       <c r="I3">
-        <v>0.0004918517370966491</v>
+        <v>0.000739343117942326</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>0.2916504583479345</v>
+        <v>0.2665064894166029</v>
       </c>
       <c r="L3">
-        <v>0.1052611060950817</v>
+        <v>0.1536271215091851</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.05917297176007885</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1058109761875556</v>
       </c>
       <c r="O3">
-        <v>0.517489777100181</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8325248128365885</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.758309759233924</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5189978027162638</v>
+      </c>
+      <c r="R3">
+        <v>0.8321342663190094</v>
+      </c>
+      <c r="S3">
+        <v>1.657068704641262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.489833955870523</v>
+        <v>1.452122251251438</v>
       </c>
       <c r="C4">
-        <v>0.4251466083099444</v>
+        <v>0.4485942727390864</v>
       </c>
       <c r="D4">
-        <v>0.1113506747148705</v>
+        <v>0.1162551317414398</v>
       </c>
       <c r="E4">
-        <v>0.09031469200796138</v>
+        <v>0.0923095590448888</v>
       </c>
       <c r="F4">
-        <v>0.728109239337968</v>
+        <v>0.6989833939459302</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0008757087066388891</v>
+        <v>0.0007116369915742826</v>
       </c>
       <c r="I4">
-        <v>0.0004260259410995282</v>
+        <v>0.0005823926201391494</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>0.2906219823680587</v>
+        <v>0.2668825285140599</v>
       </c>
       <c r="L4">
-        <v>0.1005014217903302</v>
+        <v>0.1564071607908879</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.05787131560333236</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1012650615011843</v>
       </c>
       <c r="O4">
-        <v>0.4716939504353448</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8408991813043585</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.698918124653602</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4730515410563427</v>
+      </c>
+      <c r="R4">
+        <v>0.8367499944123011</v>
+      </c>
+      <c r="S4">
+        <v>1.606645180602698</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.427569654595771</v>
+        <v>1.393044871953208</v>
       </c>
       <c r="C5">
-        <v>0.4092024652247233</v>
+        <v>0.4304555343455547</v>
       </c>
       <c r="D5">
-        <v>0.1085866917624969</v>
+        <v>0.1133272541115105</v>
       </c>
       <c r="E5">
-        <v>0.08837803806409639</v>
+        <v>0.09037588519103679</v>
       </c>
       <c r="F5">
-        <v>0.7160464439935623</v>
+        <v>0.6881574643081976</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.001109660309807858</v>
+        <v>0.0009159513680636611</v>
       </c>
       <c r="I5">
-        <v>0.000506498900949115</v>
+        <v>0.0006312954391214376</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>0.2899408644737562</v>
+        <v>0.2667754393682102</v>
       </c>
       <c r="L5">
-        <v>0.09853306482162694</v>
+        <v>0.1574059804967973</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0574049758419708</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.09938351273223134</v>
       </c>
       <c r="O5">
-        <v>0.45304396518641</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8447300670638427</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.673520765427128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4543380289283832</v>
+      </c>
+      <c r="R5">
+        <v>0.8390993066135479</v>
+      </c>
+      <c r="S5">
+        <v>1.58485674470262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.415983085536425</v>
+        <v>1.382005490593855</v>
       </c>
       <c r="C6">
-        <v>0.4073639910409099</v>
+        <v>0.4282817647184629</v>
       </c>
       <c r="D6">
-        <v>0.1082125209742344</v>
+        <v>0.1129274739870851</v>
       </c>
       <c r="E6">
-        <v>0.08806893581450126</v>
+        <v>0.09006745749528378</v>
       </c>
       <c r="F6">
-        <v>0.7134313719299072</v>
+        <v>0.6857616952559482</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.001152714818363321</v>
+        <v>0.000953728320746583</v>
       </c>
       <c r="I6">
-        <v>0.0006093906893651635</v>
+        <v>0.0007447693342843564</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>0.2894411392877991</v>
+        <v>0.2663957663285359</v>
       </c>
       <c r="L6">
-        <v>0.09818360404659288</v>
+        <v>0.1573860508148854</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.05724640814866611</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.09904865942461782</v>
       </c>
       <c r="O6">
-        <v>0.449968153807454</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8456875054136788</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.667435888416207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4512515296650932</v>
+      </c>
+      <c r="R6">
+        <v>0.8398474608970119</v>
+      </c>
+      <c r="S6">
+        <v>1.579427510147042</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.485602250546123</v>
+        <v>1.447996283319611</v>
       </c>
       <c r="C7">
-        <v>0.427137284743111</v>
+        <v>0.4506317645885076</v>
       </c>
       <c r="D7">
-        <v>0.1115437909091099</v>
+        <v>0.1164498833109278</v>
       </c>
       <c r="E7">
-        <v>0.09032341372326158</v>
+        <v>0.09231868024393819</v>
       </c>
       <c r="F7">
-        <v>0.7262540075424013</v>
+        <v>0.6971899282454501</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0008814644920602799</v>
+        <v>0.0007166726559049152</v>
       </c>
       <c r="I7">
-        <v>0.0006492855645348072</v>
+        <v>0.0008471048301101902</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>0.2895476437162969</v>
+        <v>0.2658902327875836</v>
       </c>
       <c r="L7">
-        <v>0.1004152243335099</v>
+        <v>0.1559257475697322</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.05760746061559274</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1011806891310627</v>
       </c>
       <c r="O7">
-        <v>0.4715007257461181</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8418150833383748</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.693414614751902</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4728574313506044</v>
+      </c>
+      <c r="R7">
+        <v>0.8377476260883654</v>
+      </c>
+      <c r="S7">
+        <v>1.601368612315923</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.794646588594958</v>
+        <v>1.740408052437687</v>
       </c>
       <c r="C8">
-        <v>0.5127824747813747</v>
+        <v>0.5479426467737198</v>
       </c>
       <c r="D8">
-        <v>0.1261087259459828</v>
+        <v>0.1318934380403789</v>
       </c>
       <c r="E8">
-        <v>0.1002168689374585</v>
+        <v>0.1022055900874435</v>
       </c>
       <c r="F8">
-        <v>0.7855589849786782</v>
+        <v>0.7500345863356443</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0001332609108690708</v>
+        <v>8.595948716583202E-05</v>
       </c>
       <c r="I8">
-        <v>0.000977363553878341</v>
+        <v>0.001351849746008327</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>0.2915459007997221</v>
+        <v>0.2649483429340371</v>
       </c>
       <c r="L8">
-        <v>0.1102277666034475</v>
+        <v>0.1501388651377766</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.06064125873682968</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1105486904590016</v>
       </c>
       <c r="O8">
-        <v>0.5664251039060204</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.8253756607057596</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.816107758117965</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5680849963305334</v>
+      </c>
+      <c r="R8">
+        <v>0.8292236513311266</v>
+      </c>
+      <c r="S8">
+        <v>1.705230109198737</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.402089917645412</v>
+        <v>2.312930569199466</v>
       </c>
       <c r="C9">
-        <v>0.6789813695758369</v>
+        <v>0.7382174847544434</v>
       </c>
       <c r="D9">
-        <v>0.1546258626035524</v>
+        <v>0.1622643614961135</v>
       </c>
       <c r="E9">
-        <v>0.1195301715527499</v>
+        <v>0.121530348794316</v>
       </c>
       <c r="F9">
-        <v>0.909415433105039</v>
+        <v>0.8601085300979037</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0004685797989329998</v>
+        <v>0.0005157745191772811</v>
       </c>
       <c r="I9">
-        <v>0.002808789845003545</v>
+        <v>0.003225710911618052</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.2993768835777395</v>
+        <v>0.2662061752099056</v>
       </c>
       <c r="L9">
-        <v>0.129308834094914</v>
+        <v>0.1401918801744806</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.07156146361518267</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1287328520047595</v>
       </c>
       <c r="O9">
-        <v>0.7525657090616491</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.7970802023774439</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>2.078733851586094</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.7547190484580639</v>
+      </c>
+      <c r="R9">
+        <v>0.8169012396319815</v>
+      </c>
+      <c r="S9">
+        <v>1.927292859612606</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.838508132808556</v>
+        <v>2.723453004005762</v>
       </c>
       <c r="C10">
-        <v>0.8000410827959001</v>
+        <v>0.8769687285790724</v>
       </c>
       <c r="D10">
-        <v>0.1718745129710442</v>
+        <v>0.1807713301214022</v>
       </c>
       <c r="E10">
-        <v>0.1286555870874651</v>
+        <v>0.130614189420772</v>
       </c>
       <c r="F10">
-        <v>0.9895040880124384</v>
+        <v>0.9303796952562209</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.002055664358931342</v>
+        <v>0.00207532922387843</v>
       </c>
       <c r="I10">
-        <v>0.00530647986402677</v>
+        <v>0.005610798029591635</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>0.302783185783241</v>
+        <v>0.2650214704304936</v>
       </c>
       <c r="L10">
-        <v>0.1368727828750735</v>
+        <v>0.1321869993548965</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.08111039044026569</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1356909827719122</v>
       </c>
       <c r="O10">
-        <v>0.8758106677604474</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.7849156859379391</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>2.252429784383565</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.8782039101579144</v>
+      </c>
+      <c r="R10">
+        <v>0.8171970662372559</v>
+      </c>
+      <c r="S10">
+        <v>2.071839313686553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.981353157718956</v>
+        <v>2.86477449455424</v>
       </c>
       <c r="C11">
-        <v>0.8241998251999973</v>
+        <v>0.9013091362203625</v>
       </c>
       <c r="D11">
-        <v>0.1461210115628262</v>
+        <v>0.1539713789148891</v>
       </c>
       <c r="E11">
-        <v>0.0941633874966854</v>
+        <v>0.09558442380142296</v>
       </c>
       <c r="F11">
-        <v>0.9097781834821177</v>
+        <v>0.8544552131666592</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.02057935144378931</v>
+        <v>0.02058007432318476</v>
       </c>
       <c r="I11">
-        <v>0.006597505592153219</v>
+        <v>0.006936739235062106</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.27569200736216</v>
+        <v>0.2412061107805563</v>
       </c>
       <c r="L11">
-        <v>0.09692508027198343</v>
+        <v>0.1206613372955889</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.07607006873756461</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.09609993258907679</v>
       </c>
       <c r="O11">
-        <v>0.8137223039126198</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.8242572827777437</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>2.102104421456801</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.8159207866323754</v>
+      </c>
+      <c r="R11">
+        <v>0.8643408950654958</v>
+      </c>
+      <c r="S11">
+        <v>1.931649342282952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.014386660656555</v>
+        <v>2.902178399573245</v>
       </c>
       <c r="C12">
-        <v>0.8148858933781185</v>
+        <v>0.8880937273629854</v>
       </c>
       <c r="D12">
-        <v>0.1226237244811088</v>
+        <v>0.1293580450338823</v>
       </c>
       <c r="E12">
-        <v>0.07087481414296271</v>
+        <v>0.07187354905000198</v>
       </c>
       <c r="F12">
-        <v>0.8302514769087566</v>
+        <v>0.7800253792995022</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0590333245091017</v>
+        <v>0.05903237665964411</v>
       </c>
       <c r="I12">
-        <v>0.006745974153796297</v>
+        <v>0.007072464340378559</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.25440557848151</v>
+        <v>0.2234093959990808</v>
       </c>
       <c r="L12">
-        <v>0.07745006271660504</v>
+        <v>0.1135753942549584</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.07025327390691416</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.0770202713687933</v>
       </c>
       <c r="O12">
-        <v>0.7376403365935147</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.863207830097636</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.948637381628032</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.7396360343353834</v>
+      </c>
+      <c r="R12">
+        <v>0.9064998295224029</v>
+      </c>
+      <c r="S12">
+        <v>1.792365692970037</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.959123214771409</v>
+        <v>2.856234560538155</v>
       </c>
       <c r="C13">
-        <v>0.7828461580962198</v>
+        <v>0.8490058303830779</v>
       </c>
       <c r="D13">
-        <v>0.09997158792871375</v>
+        <v>0.1055138914493412</v>
       </c>
       <c r="E13">
-        <v>0.05490204573971624</v>
+        <v>0.05555475199991733</v>
       </c>
       <c r="F13">
-        <v>0.7437876061772428</v>
+        <v>0.699929190832016</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1144039122939802</v>
+        <v>0.1144124983477894</v>
       </c>
       <c r="I13">
-        <v>0.006315100798444107</v>
+        <v>0.006670881529603712</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.234626633587105</v>
+        <v>0.2075877993619031</v>
       </c>
       <c r="L13">
-        <v>0.0722901199521484</v>
+        <v>0.1085347092657152</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.06307090795123216</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.07228468430738744</v>
       </c>
       <c r="O13">
-        <v>0.6470624035437282</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>0.9045663239055699</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.775764260319306</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6488303340743329</v>
+      </c>
+      <c r="R13">
+        <v>0.9477976237616303</v>
+      </c>
+      <c r="S13">
+        <v>1.637746739224809</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.879564093146143</v>
+        <v>2.785400824303451</v>
       </c>
       <c r="C14">
-        <v>0.7509614730944065</v>
+        <v>0.8108644034108465</v>
       </c>
       <c r="D14">
-        <v>0.0849848338549748</v>
+        <v>0.0896889640612244</v>
       </c>
       <c r="E14">
-        <v>0.0481160427510674</v>
+        <v>0.0485715920446963</v>
       </c>
       <c r="F14">
-        <v>0.6805668382158316</v>
+        <v>0.6416324039459198</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1634442654388977</v>
+        <v>0.1634620143163517</v>
       </c>
       <c r="I14">
-        <v>0.005845268234673462</v>
+        <v>0.006251725812596476</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.2214149933827052</v>
+        <v>0.1973077219299242</v>
       </c>
       <c r="L14">
-        <v>0.07714383748855624</v>
+        <v>0.1057548250247731</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.05753651711441421</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.07743149999181753</v>
       </c>
       <c r="O14">
-        <v>0.5781036996313418</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9351809038851258</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.646115083788914</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5796970839959812</v>
+      </c>
+      <c r="R14">
+        <v>0.9768114505771166</v>
+      </c>
+      <c r="S14">
+        <v>1.522465001510511</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.840157957283225</v>
+        <v>2.749144314383614</v>
       </c>
       <c r="C15">
-        <v>0.739334786412968</v>
+        <v>0.797113135220485</v>
       </c>
       <c r="D15">
-        <v>0.08131137939941624</v>
+        <v>0.08579747276560568</v>
       </c>
       <c r="E15">
-        <v>0.04701112134762453</v>
+        <v>0.04743404420278274</v>
       </c>
       <c r="F15">
-        <v>0.6630265947677501</v>
+        <v>0.6255666907556261</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1758253772413383</v>
+        <v>0.1758464889025788</v>
       </c>
       <c r="I15">
-        <v>0.005716593205884024</v>
+        <v>0.006164860754188872</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657407966</v>
       </c>
       <c r="K15">
-        <v>0.2181402726468242</v>
+        <v>0.1948738573023157</v>
       </c>
       <c r="L15">
-        <v>0.07928712238029689</v>
+        <v>0.1053108906214515</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.05584250909755539</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.07965329336768789</v>
       </c>
       <c r="O15">
-        <v>0.5580944857605274</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>0.942990715957535</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.60869702440948</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.5596377627214295</v>
+      </c>
+      <c r="R15">
+        <v>0.9836275829799774</v>
+      </c>
+      <c r="S15">
+        <v>1.489442440836768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.662412483463299</v>
+        <v>2.580622088971893</v>
       </c>
       <c r="C16">
-        <v>0.69568233496841</v>
+        <v>0.7475277099779305</v>
       </c>
       <c r="D16">
-        <v>0.07918798556451634</v>
+        <v>0.08347787748679991</v>
       </c>
       <c r="E16">
-        <v>0.04674162037508167</v>
+        <v>0.04728562793647906</v>
       </c>
       <c r="F16">
-        <v>0.6464940413399916</v>
+        <v>0.6115982213986797</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1624964077967235</v>
+        <v>0.1625249816701029</v>
       </c>
       <c r="I16">
-        <v>0.004782847158838699</v>
+        <v>0.005320012807477958</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.2200553295218377</v>
+        <v>0.1977845172545436</v>
       </c>
       <c r="L16">
-        <v>0.07711665059645512</v>
+        <v>0.1084110236967746</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.05347831727479324</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.0775849097761494</v>
       </c>
       <c r="O16">
-        <v>0.5261916357646967</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9372982471246303</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.567760664901726</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5276658452235097</v>
+      </c>
+      <c r="R16">
+        <v>0.9722435378823917</v>
+      </c>
+      <c r="S16">
+        <v>1.456541281451621</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.568333908947523</v>
+        <v>2.488966619444284</v>
       </c>
       <c r="C17">
-        <v>0.6792234080837432</v>
+        <v>0.7298190042314729</v>
       </c>
       <c r="D17">
-        <v>0.08523583117612077</v>
+        <v>0.08979363674536245</v>
       </c>
       <c r="E17">
-        <v>0.04939119835341899</v>
+        <v>0.05012245447623354</v>
       </c>
       <c r="F17">
-        <v>0.6669503585391965</v>
+        <v>0.6315069847879826</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1244362603759157</v>
+        <v>0.1244639787489632</v>
       </c>
       <c r="I17">
-        <v>0.004355053564617961</v>
+        <v>0.004932763124304351</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234516</v>
       </c>
       <c r="K17">
-        <v>0.2284604410880071</v>
+        <v>0.2054594272108901</v>
       </c>
       <c r="L17">
-        <v>0.07149102153406695</v>
+        <v>0.1124856821444293</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.05447289349930529</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.07190043777566579</v>
       </c>
       <c r="O17">
-        <v>0.5376627311528352</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9169560557137686</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.604655455662083</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.5391793500519526</v>
+      </c>
+      <c r="R17">
+        <v>0.9485372042258859</v>
+      </c>
+      <c r="S17">
+        <v>1.492199120209364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.537976264440942</v>
+        <v>2.455560562488301</v>
       </c>
       <c r="C18">
-        <v>0.682260189074924</v>
+        <v>0.7353648581663776</v>
       </c>
       <c r="D18">
-        <v>0.1000707773447402</v>
+        <v>0.1053482799857548</v>
       </c>
       <c r="E18">
-        <v>0.05870139070064795</v>
+        <v>0.05971188730624277</v>
       </c>
       <c r="F18">
-        <v>0.7240696131469448</v>
+        <v>0.6852417497774752</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07157610736749831</v>
+        <v>0.07160452269152984</v>
       </c>
       <c r="I18">
-        <v>0.004005790605837944</v>
+        <v>0.004546637938672049</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146309314</v>
       </c>
       <c r="K18">
-        <v>0.244493967690957</v>
+        <v>0.219081232797798</v>
       </c>
       <c r="L18">
-        <v>0.06988375346601644</v>
+        <v>0.1183317453416564</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.05860805595840546</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.07007216401886218</v>
       </c>
       <c r="O18">
-        <v>0.5893513162841799</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.882445775786465</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.717969384353665</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5910200965138088</v>
+      </c>
+      <c r="R18">
+        <v>0.9119263620393951</v>
+      </c>
+      <c r="S18">
+        <v>1.595900319877984</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.55418300315074</v>
+        <v>2.46474975335866</v>
       </c>
       <c r="C19">
-        <v>0.7049655987531764</v>
+        <v>0.7636385989636096</v>
       </c>
       <c r="D19">
-        <v>0.123134590640916</v>
+        <v>0.1295166853943144</v>
       </c>
       <c r="E19">
-        <v>0.07850820771559341</v>
+        <v>0.0798811544853848</v>
       </c>
       <c r="F19">
-        <v>0.806509232541913</v>
+        <v>0.7621342237840736</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.0265603490626134</v>
+        <v>0.02659404396457887</v>
       </c>
       <c r="I19">
-        <v>0.004238384245094373</v>
+        <v>0.004795136088636909</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.0759263476844998</v>
       </c>
       <c r="K19">
-        <v>0.2646255297559286</v>
+        <v>0.2356354731123993</v>
       </c>
       <c r="L19">
-        <v>0.08290711742778356</v>
+        <v>0.1248352732431091</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.06460633496517687</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.08272350033974085</v>
       </c>
       <c r="O19">
-        <v>0.6727688651363124</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.8445099688424236</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.879951139370291</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.6746719663389698</v>
+      </c>
+      <c r="R19">
+        <v>0.8728632165478984</v>
+      </c>
+      <c r="S19">
+        <v>1.74208772642919</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.71293464081657</v>
+        <v>2.605117145691509</v>
       </c>
       <c r="C20">
-        <v>0.7750319828286365</v>
+        <v>0.8475620675352218</v>
       </c>
       <c r="D20">
-        <v>0.1678819515658461</v>
+        <v>0.1764541140516087</v>
       </c>
       <c r="E20">
-        <v>0.1261517668367382</v>
+        <v>0.1281208091755275</v>
       </c>
       <c r="F20">
-        <v>0.962418198148157</v>
+        <v>0.9061537745951966</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.001520973475166443</v>
+        <v>0.001554898162491103</v>
       </c>
       <c r="I20">
-        <v>0.00525866591429125</v>
+        <v>0.005763004284001561</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>0.2983907106264851</v>
+        <v>0.2622179519767727</v>
       </c>
       <c r="L20">
-        <v>0.1344395855989333</v>
+        <v>0.1331308703671823</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.07723140395131978</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1334243355849409</v>
       </c>
       <c r="O20">
-        <v>0.8430387981801815</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.7912115821525205</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>2.189005213494369</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.8453747933393245</v>
+      </c>
+      <c r="R20">
+        <v>0.8206540580142132</v>
+      </c>
+      <c r="S20">
+        <v>2.01711393394595</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.058049400393315</v>
+        <v>2.927991480503124</v>
       </c>
       <c r="C21">
-        <v>0.8733349303318505</v>
+        <v>0.9611294624966433</v>
       </c>
       <c r="D21">
-        <v>0.1874375211507839</v>
+        <v>0.1972941344174188</v>
       </c>
       <c r="E21">
-        <v>0.14108938075195</v>
+        <v>0.1431234193138096</v>
       </c>
       <c r="F21">
-        <v>1.04691660650434</v>
+        <v>0.9813742088930866</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.003105352557875918</v>
+        <v>0.003081627609407778</v>
       </c>
       <c r="I21">
-        <v>0.007495236685268303</v>
+        <v>0.007813618088318819</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752018</v>
       </c>
       <c r="K21">
-        <v>0.3072122860479922</v>
+        <v>0.2663766915670891</v>
       </c>
       <c r="L21">
-        <v>0.150066694387732</v>
+        <v>0.1289176353202244</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.08727121537720706</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1484634633051769</v>
       </c>
       <c r="O21">
-        <v>0.9591235979909527</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.7758281938952791</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>2.369426621403903</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.9616599504483645</v>
+      </c>
+      <c r="R21">
+        <v>0.8145221772408817</v>
+      </c>
+      <c r="S21">
+        <v>2.170127194397537</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.2849965049042</v>
+        <v>3.14055171105349</v>
       </c>
       <c r="C22">
-        <v>0.9330764264172728</v>
+        <v>1.030394547164946</v>
       </c>
       <c r="D22">
-        <v>0.1978908321316482</v>
+        <v>0.2084978647283862</v>
       </c>
       <c r="E22">
-        <v>0.1482158869889787</v>
+        <v>0.1502608952518969</v>
       </c>
       <c r="F22">
-        <v>1.098331398122554</v>
+        <v>1.026969939025264</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.00445901493415557</v>
+        <v>0.004374513609444408</v>
       </c>
       <c r="I22">
-        <v>0.008911950214307574</v>
+        <v>0.009002740303742485</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079829286</v>
       </c>
       <c r="K22">
-        <v>0.3130112148902846</v>
+        <v>0.2691955094229215</v>
       </c>
       <c r="L22">
-        <v>0.1571307394679877</v>
+        <v>0.1261471753614707</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.094365122303806</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1551717256496588</v>
       </c>
       <c r="O22">
-        <v>1.028026059472424</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.7674197209828364</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>2.483036767227816</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.030650072000412</v>
+      </c>
+      <c r="R22">
+        <v>0.8121460061292538</v>
+      </c>
+      <c r="S22">
+        <v>2.266357563284544</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.168053081556707</v>
+        <v>3.03119878749493</v>
       </c>
       <c r="C23">
-        <v>0.8984517955361753</v>
+        <v>0.9905320351786884</v>
       </c>
       <c r="D23">
-        <v>0.1920256986209949</v>
+        <v>0.2022236686219969</v>
       </c>
       <c r="E23">
-        <v>0.1443650215242336</v>
+        <v>0.1464032139727216</v>
       </c>
       <c r="F23">
-        <v>1.072813316618806</v>
+        <v>1.004490019631973</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.003714170910477321</v>
+        <v>0.003664071204359631</v>
       </c>
       <c r="I23">
-        <v>0.007869438808324247</v>
+        <v>0.008023292726480946</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787805219</v>
       </c>
       <c r="K23">
-        <v>0.3111209100950596</v>
+        <v>0.2687699617546713</v>
       </c>
       <c r="L23">
-        <v>0.1534276541993478</v>
+        <v>0.1279889059396098</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.09099464707339067</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1516574827191661</v>
       </c>
       <c r="O23">
-        <v>0.9911735492926681</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.7705931666004986</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>2.428277897960413</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.9937529823366091</v>
+      </c>
+      <c r="R23">
+        <v>0.8119096115825997</v>
+      </c>
+      <c r="S23">
+        <v>2.220596450676652</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.718071484862264</v>
+        <v>2.609514460311516</v>
       </c>
       <c r="C24">
-        <v>0.7724746910539864</v>
+        <v>0.8452974158623192</v>
       </c>
       <c r="D24">
-        <v>0.170396780600953</v>
+        <v>0.1790880396854675</v>
       </c>
       <c r="E24">
-        <v>0.1299031465750353</v>
+        <v>0.1319182520923619</v>
       </c>
       <c r="F24">
-        <v>0.9746911550361688</v>
+        <v>0.9177064534481616</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.001467997636487084</v>
+        <v>0.001502202314435541</v>
       </c>
       <c r="I24">
-        <v>0.004828545926773842</v>
+        <v>0.005233423776436652</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>0.3026983766381477</v>
+        <v>0.2659266209155042</v>
       </c>
       <c r="L24">
-        <v>0.1393073202613735</v>
+        <v>0.1345821080860681</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.07857184087329827</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1382418842446498</v>
       </c>
       <c r="O24">
-        <v>0.8519856313364542</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.7861560007443202</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>2.216000842521908</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.85434529782178</v>
+      </c>
+      <c r="R24">
+        <v>0.8149987985400671</v>
+      </c>
+      <c r="S24">
+        <v>2.041963548081668</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.231957157645581</v>
+        <v>2.152643277613208</v>
       </c>
       <c r="C25">
-        <v>0.6378034711476062</v>
+        <v>0.6905585629605753</v>
       </c>
       <c r="D25">
-        <v>0.1472875026718725</v>
+        <v>0.154418989711516</v>
       </c>
       <c r="E25">
-        <v>0.1143685331482409</v>
+        <v>0.1163644158010477</v>
       </c>
       <c r="F25">
-        <v>0.87230396052</v>
+        <v>0.8269478400772385</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.0001651152823014534</v>
+        <v>0.0002026951224656237</v>
       </c>
       <c r="I25">
-        <v>0.00251177159239635</v>
+        <v>0.00302744582883907</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.2951165343002593</v>
+        <v>0.2639737544056828</v>
       </c>
       <c r="L25">
-        <v>0.1240634955566833</v>
+        <v>0.1421138340223997</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.0675103467065199</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1237353646550723</v>
       </c>
       <c r="O25">
-        <v>0.7022759509531227</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8058632727953139</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.996822528216228</v>
+        <v>0.7043094943849226</v>
+      </c>
+      <c r="R25">
+        <v>0.8215347077932122</v>
+      </c>
+      <c r="S25">
+        <v>1.857146784076349</v>
       </c>
     </row>
   </sheetData>
